--- a/assignment_after.xlsx
+++ b/assignment_after.xlsx
@@ -186,7 +186,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,9 +225,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -3835,7 +3832,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="64">
+      <c r="D56" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
@@ -3853,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="65">
+      <c r="D57" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="66">
+      <c r="D58" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>96</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>46</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="67">
+      <c r="D59" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
@@ -3907,7 +3904,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="68">
+      <c r="D60" s="66">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
@@ -3925,7 +3922,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="69">
+      <c r="D61" s="67">
         <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
@@ -3943,7 +3940,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="70">
+      <c r="D62" s="68">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="71">
+      <c r="D63" s="69">
         <f t="shared" ca="1" si="1"/>
         <v>98</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="72">
+      <c r="D64" s="70">
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
@@ -3997,7 +3994,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="73">
+      <c r="D65" s="71">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
@@ -4015,7 +4012,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="74">
+      <c r="D66" s="72">
         <f t="shared" ca="1" si="1"/>
         <v>98</v>
       </c>
@@ -4033,7 +4030,7 @@
         <v>54</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="75">
+      <c r="D67" s="73">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="76">
+      <c r="D68" s="74">
         <f t="shared" ca="1" si="1"/>
         <v>86</v>
       </c>
@@ -4069,7 +4066,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="77">
+      <c r="D69" s="75">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
@@ -4087,7 +4084,7 @@
         <v>57</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="78">
+      <c r="D70" s="76">
         <f t="shared" ca="1" si="1"/>
         <v>74</v>
       </c>
@@ -4105,7 +4102,7 @@
         <v>58</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="79">
+      <c r="D71" s="77">
         <f t="shared" ca="1" si="1"/>
         <v>69</v>
       </c>
@@ -4123,7 +4120,7 @@
         <v>59</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="80">
+      <c r="D72" s="78">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="81">
+      <c r="D73" s="79">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>61</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="82">
+      <c r="D74" s="80">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
@@ -4177,7 +4174,7 @@
         <v>62</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="83">
+      <c r="D75" s="81">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>63</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="84">
+      <c r="D76" s="82">
         <f t="shared" ca="1" si="1"/>
         <v>90</v>
       </c>
@@ -4213,7 +4210,7 @@
         <v>64</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="85">
+      <c r="D77" s="83">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
@@ -4231,7 +4228,7 @@
         <v>65</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="86">
+      <c r="D78" s="84">
         <f t="shared" ca="1" si="1"/>
         <v>88</v>
       </c>
@@ -4249,7 +4246,7 @@
         <v>66</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="87">
+      <c r="D79" s="85">
         <f t="shared" ref="D79:D142" ca="1" si="4">ROUND(RAND()*100,0)</f>
         <v>21</v>
       </c>
@@ -4267,7 +4264,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="88">
+      <c r="D80" s="86">
         <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>68</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="89">
+      <c r="D81" s="87">
         <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
@@ -4303,7 +4300,7 @@
         <v>69</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="90">
+      <c r="D82" s="88">
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>70</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="91">
+      <c r="D83" s="89">
         <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
@@ -4339,7 +4336,7 @@
         <v>71</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="92">
+      <c r="D84" s="90">
         <f t="shared" ca="1" si="4"/>
         <v>89</v>
       </c>
@@ -4357,7 +4354,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="93">
+      <c r="D85" s="91">
         <f t="shared" ca="1" si="4"/>
         <v>99</v>
       </c>
@@ -4375,7 +4372,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="94">
+      <c r="D86" s="92">
         <f t="shared" ca="1" si="4"/>
         <v>84</v>
       </c>
@@ -4393,7 +4390,7 @@
         <v>74</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="95">
+      <c r="D87" s="10">
         <f t="shared" ca="1" si="4"/>
         <v>15</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>75</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="96">
+      <c r="D88" s="93">
         <f t="shared" ca="1" si="4"/>
         <v>74</v>
       </c>
@@ -4429,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="97">
+      <c r="D89" s="94">
         <f t="shared" ca="1" si="4"/>
         <v>84</v>
       </c>
@@ -4447,7 +4444,7 @@
         <v>77</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="98">
+      <c r="D90" s="95">
         <f t="shared" ca="1" si="4"/>
         <v>85</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>78</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="99">
+      <c r="D91" s="96">
         <f t="shared" ca="1" si="4"/>
         <v>92</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>79</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="100">
+      <c r="D92" s="97">
         <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="101">
+      <c r="D93" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>82</v>
       </c>
@@ -4519,7 +4516,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="102">
+      <c r="D94" s="99">
         <f t="shared" ca="1" si="4"/>
         <v>96</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="103">
+      <c r="D95" s="100">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>83</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="104">
+      <c r="D96" s="101">
         <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="105">
+      <c r="D97" s="102">
         <f t="shared" ca="1" si="4"/>
         <v>69</v>
       </c>
@@ -4591,7 +4588,7 @@
         <v>85</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="106">
+      <c r="D98" s="103">
         <f t="shared" ca="1" si="4"/>
         <v>21</v>
       </c>
@@ -4609,7 +4606,7 @@
         <v>86</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="107">
+      <c r="D99" s="104">
         <f t="shared" ca="1" si="4"/>
         <v>96</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>87</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="108">
+      <c r="D100" s="105">
         <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
@@ -4645,7 +4642,7 @@
         <v>88</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="109">
+      <c r="D101" s="106">
         <f t="shared" ca="1" si="4"/>
         <v>29</v>
       </c>
@@ -4663,7 +4660,7 @@
         <v>89</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="110">
+      <c r="D102" s="107">
         <f t="shared" ca="1" si="4"/>
         <v>97</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>90</v>
       </c>
       <c r="C103" s="5"/>
-      <c r="D103" s="111">
+      <c r="D103" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>16</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>91</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="112">
+      <c r="D104" s="109">
         <f t="shared" ca="1" si="4"/>
         <v>94</v>
       </c>
@@ -4717,7 +4714,7 @@
         <v>92</v>
       </c>
       <c r="C105" s="5"/>
-      <c r="D105" s="113">
+      <c r="D105" s="110">
         <f t="shared" ca="1" si="4"/>
         <v>76</v>
       </c>
@@ -4735,7 +4732,7 @@
         <v>93</v>
       </c>
       <c r="C106" s="5"/>
-      <c r="D106" s="114">
+      <c r="D106" s="111">
         <f t="shared" ca="1" si="4"/>
         <v>28</v>
       </c>
@@ -4753,7 +4750,7 @@
         <v>94</v>
       </c>
       <c r="C107" s="5"/>
-      <c r="D107" s="115">
+      <c r="D107" s="112">
         <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>95</v>
       </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="116">
+      <c r="D108" s="113">
         <f t="shared" ca="1" si="4"/>
         <v>82</v>
       </c>
@@ -4789,7 +4786,7 @@
         <v>96</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="117">
+      <c r="D109" s="114">
         <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
@@ -4807,7 +4804,7 @@
         <v>97</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="118">
+      <c r="D110" s="115">
         <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
@@ -4825,7 +4822,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="119">
+      <c r="D111" s="116">
         <f t="shared" ca="1" si="4"/>
         <v>90</v>
       </c>
@@ -4843,7 +4840,7 @@
         <v>99</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="120">
+      <c r="D112" s="117">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
@@ -4861,7 +4858,7 @@
         <v>100</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="121">
+      <c r="D113" s="118">
         <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
@@ -4879,7 +4876,7 @@
         <v>101</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="122">
+      <c r="D114" s="119">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
@@ -4897,7 +4894,7 @@
         <v>102</v>
       </c>
       <c r="C115" s="5"/>
-      <c r="D115" s="123">
+      <c r="D115" s="120">
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>103</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="124">
+      <c r="D116" s="121">
         <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>104</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="125">
+      <c r="D117" s="122">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
@@ -4951,7 +4948,7 @@
         <v>105</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="126">
+      <c r="D118" s="123">
         <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>106</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="127">
+      <c r="D119" s="124">
         <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
@@ -4987,7 +4984,7 @@
         <v>107</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="128">
+      <c r="D120" s="125">
         <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
@@ -5005,7 +5002,7 @@
         <v>108</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="129">
+      <c r="D121" s="126">
         <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
@@ -5023,7 +5020,7 @@
         <v>109</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="130">
+      <c r="D122" s="127">
         <f t="shared" ca="1" si="4"/>
         <v>95</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>110</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="131">
+      <c r="D123" s="128">
         <f t="shared" ca="1" si="4"/>
         <v>26</v>
       </c>
@@ -5059,7 +5056,7 @@
         <v>111</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="132">
+      <c r="D124" s="129">
         <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
@@ -5077,7 +5074,7 @@
         <v>112</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="133">
+      <c r="D125" s="130">
         <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
@@ -5095,7 +5092,7 @@
         <v>113</v>
       </c>
       <c r="C126" s="5"/>
-      <c r="D126" s="134">
+      <c r="D126" s="131">
         <f t="shared" ca="1" si="4"/>
         <v>85</v>
       </c>
@@ -5113,7 +5110,7 @@
         <v>114</v>
       </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="135">
+      <c r="D127" s="132">
         <f t="shared" ca="1" si="4"/>
         <v>16</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>115</v>
       </c>
       <c r="C128" s="5"/>
-      <c r="D128" s="136">
+      <c r="D128" s="133">
         <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
@@ -5149,7 +5146,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="137">
+      <c r="D129" s="134">
         <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="138">
+      <c r="D130" s="135">
         <f t="shared" ca="1" si="4"/>
         <v>85</v>
       </c>
@@ -5185,7 +5182,7 @@
         <v>118</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="139">
+      <c r="D131" s="136">
         <f t="shared" ca="1" si="4"/>
         <v>84</v>
       </c>
@@ -5203,7 +5200,7 @@
         <v>119</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="140">
+      <c r="D132" s="137">
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>120</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="141">
+      <c r="D133" s="138">
         <f t="shared" ca="1" si="4"/>
         <v>97</v>
       </c>
@@ -5239,7 +5236,7 @@
         <v>121</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="142">
+      <c r="D134" s="139">
         <f t="shared" ca="1" si="4"/>
         <v>18</v>
       </c>
@@ -5257,7 +5254,7 @@
         <v>122</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="143">
+      <c r="D135" s="140">
         <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>123</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="144">
+      <c r="D136" s="141">
         <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>124</v>
       </c>
       <c r="C137" s="5"/>
-      <c r="D137" s="145">
+      <c r="D137" s="142">
         <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
@@ -5311,7 +5308,7 @@
         <v>125</v>
       </c>
       <c r="C138" s="5"/>
-      <c r="D138" s="146">
+      <c r="D138" s="143">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>126</v>
       </c>
       <c r="C139" s="5"/>
-      <c r="D139" s="147">
+      <c r="D139" s="144">
         <f t="shared" ca="1" si="4"/>
         <v>29</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>127</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="148">
+      <c r="D140" s="145">
         <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>128</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="149">
+      <c r="D141" s="146">
         <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
@@ -5383,7 +5380,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="150">
+      <c r="D142" s="147">
         <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>130</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="151">
+      <c r="D143" s="148">
         <f t="shared" ref="D143:D206" ca="1" si="7">ROUND(RAND()*100,0)</f>
         <v>45</v>
       </c>
@@ -5419,7 +5416,7 @@
         <v>131</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="152">
+      <c r="D144" s="149">
         <f t="shared" ca="1" si="7"/>
         <v>61</v>
       </c>
@@ -5437,7 +5434,7 @@
         <v>132</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="153">
+      <c r="D145" s="150">
         <f t="shared" ca="1" si="7"/>
         <v>31</v>
       </c>
@@ -5455,7 +5452,7 @@
         <v>133</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="154">
+      <c r="D146" s="151">
         <f t="shared" ca="1" si="7"/>
         <v>61</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>134</v>
       </c>
       <c r="C147" s="5"/>
-      <c r="D147" s="155">
+      <c r="D147" s="152">
         <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>135</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="156">
+      <c r="D148" s="153">
         <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
@@ -5509,7 +5506,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="157">
+      <c r="D149" s="154">
         <f t="shared" ca="1" si="7"/>
         <v>46</v>
       </c>
@@ -5527,7 +5524,7 @@
         <v>137</v>
       </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="158">
+      <c r="D150" s="155">
         <f t="shared" ca="1" si="7"/>
         <v>8</v>
       </c>
@@ -5545,7 +5542,7 @@
         <v>138</v>
       </c>
       <c r="C151" s="5"/>
-      <c r="D151" s="159">
+      <c r="D151" s="156">
         <f t="shared" ca="1" si="7"/>
         <v>27</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>139</v>
       </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="160">
+      <c r="D152" s="157">
         <f t="shared" ca="1" si="7"/>
         <v>28</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>140</v>
       </c>
       <c r="C153" s="5"/>
-      <c r="D153" s="161">
+      <c r="D153" s="158">
         <f t="shared" ca="1" si="7"/>
         <v>55</v>
       </c>
@@ -5599,7 +5596,7 @@
         <v>141</v>
       </c>
       <c r="C154" s="5"/>
-      <c r="D154" s="162">
+      <c r="D154" s="159">
         <f t="shared" ca="1" si="7"/>
         <v>55</v>
       </c>
@@ -5617,7 +5614,7 @@
         <v>142</v>
       </c>
       <c r="C155" s="5"/>
-      <c r="D155" s="163">
+      <c r="D155" s="160">
         <f t="shared" ca="1" si="7"/>
         <v>32</v>
       </c>
@@ -5635,7 +5632,7 @@
         <v>143</v>
       </c>
       <c r="C156" s="5"/>
-      <c r="D156" s="164">
+      <c r="D156" s="161">
         <f t="shared" ca="1" si="7"/>
         <v>25</v>
       </c>
@@ -5653,7 +5650,7 @@
         <v>144</v>
       </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="165">
+      <c r="D157" s="162">
         <f t="shared" ca="1" si="7"/>
         <v>67</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>145</v>
       </c>
       <c r="C158" s="5"/>
-      <c r="D158" s="166">
+      <c r="D158" s="163">
         <f t="shared" ca="1" si="7"/>
         <v>22</v>
       </c>
@@ -5689,7 +5686,7 @@
         <v>146</v>
       </c>
       <c r="C159" s="5"/>
-      <c r="D159" s="167">
+      <c r="D159" s="164">
         <f t="shared" ca="1" si="7"/>
         <v>74</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>147</v>
       </c>
       <c r="C160" s="5"/>
-      <c r="D160" s="168">
+      <c r="D160" s="165">
         <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>148</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="169">
+      <c r="D161" s="166">
         <f t="shared" ca="1" si="7"/>
         <v>41</v>
       </c>
@@ -5743,7 +5740,7 @@
         <v>149</v>
       </c>
       <c r="C162" s="5"/>
-      <c r="D162" s="170">
+      <c r="D162" s="167">
         <f t="shared" ca="1" si="7"/>
         <v>77</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>150</v>
       </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="171">
+      <c r="D163" s="168">
         <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
@@ -5779,7 +5776,7 @@
         <v>151</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="172">
+      <c r="D164" s="169">
         <f t="shared" ca="1" si="7"/>
         <v>83</v>
       </c>
@@ -5797,7 +5794,7 @@
         <v>152</v>
       </c>
       <c r="C165" s="5"/>
-      <c r="D165" s="173">
+      <c r="D165" s="170">
         <f t="shared" ca="1" si="7"/>
         <v>54</v>
       </c>
@@ -5815,7 +5812,7 @@
         <v>153</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="174">
+      <c r="D166" s="171">
         <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
@@ -5833,7 +5830,7 @@
         <v>154</v>
       </c>
       <c r="C167" s="5"/>
-      <c r="D167" s="175">
+      <c r="D167" s="172">
         <f t="shared" ca="1" si="7"/>
         <v>58</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>155</v>
       </c>
       <c r="C168" s="5"/>
-      <c r="D168" s="176">
+      <c r="D168" s="173">
         <f t="shared" ca="1" si="7"/>
         <v>80</v>
       </c>
@@ -5869,7 +5866,7 @@
         <v>156</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="177">
+      <c r="D169" s="174">
         <f t="shared" ca="1" si="7"/>
         <v>59</v>
       </c>
@@ -5887,7 +5884,7 @@
         <v>157</v>
       </c>
       <c r="C170" s="5"/>
-      <c r="D170" s="178">
+      <c r="D170" s="175">
         <f t="shared" ca="1" si="7"/>
         <v>11</v>
       </c>
@@ -5905,7 +5902,7 @@
         <v>158</v>
       </c>
       <c r="C171" s="5"/>
-      <c r="D171" s="179">
+      <c r="D171" s="176">
         <f t="shared" ca="1" si="7"/>
         <v>15</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>159</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="180">
+      <c r="D172" s="177">
         <f t="shared" ca="1" si="7"/>
         <v>23</v>
       </c>
@@ -5941,7 +5938,7 @@
         <v>160</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="181">
+      <c r="D173" s="178">
         <f t="shared" ca="1" si="7"/>
         <v>13</v>
       </c>
@@ -5959,7 +5956,7 @@
         <v>161</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="182">
+      <c r="D174" s="179">
         <f t="shared" ca="1" si="7"/>
         <v>8</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>162</v>
       </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="183">
+      <c r="D175" s="180">
         <f t="shared" ca="1" si="7"/>
         <v>62</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>163</v>
       </c>
       <c r="C176" s="5"/>
-      <c r="D176" s="184">
+      <c r="D176" s="181">
         <f t="shared" ca="1" si="7"/>
         <v>66</v>
       </c>
@@ -6013,7 +6010,7 @@
         <v>164</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="185">
+      <c r="D177" s="182">
         <f t="shared" ca="1" si="7"/>
         <v>31</v>
       </c>
@@ -6031,7 +6028,7 @@
         <v>165</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="186">
+      <c r="D178" s="183">
         <f t="shared" ca="1" si="7"/>
         <v>28</v>
       </c>
@@ -6049,7 +6046,7 @@
         <v>166</v>
       </c>
       <c r="C179" s="5"/>
-      <c r="D179" s="187">
+      <c r="D179" s="184">
         <f t="shared" ca="1" si="7"/>
         <v>37</v>
       </c>
@@ -6067,7 +6064,7 @@
         <v>167</v>
       </c>
       <c r="C180" s="5"/>
-      <c r="D180" s="188">
+      <c r="D180" s="185">
         <f t="shared" ca="1" si="7"/>
         <v>92</v>
       </c>
@@ -6085,7 +6082,7 @@
         <v>168</v>
       </c>
       <c r="C181" s="5"/>
-      <c r="D181" s="189">
+      <c r="D181" s="186">
         <f t="shared" ca="1" si="7"/>
         <v>75</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>169</v>
       </c>
       <c r="C182" s="5"/>
-      <c r="D182" s="190">
+      <c r="D182" s="187">
         <f t="shared" ca="1" si="7"/>
         <v>94</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>170</v>
       </c>
       <c r="C183" s="5"/>
-      <c r="D183" s="191">
+      <c r="D183" s="188">
         <f t="shared" ca="1" si="7"/>
         <v>65</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>171</v>
       </c>
       <c r="C184" s="5"/>
-      <c r="D184" s="192">
+      <c r="D184" s="189">
         <f t="shared" ca="1" si="7"/>
         <v>19</v>
       </c>
@@ -6157,7 +6154,7 @@
         <v>172</v>
       </c>
       <c r="C185" s="5"/>
-      <c r="D185" s="193">
+      <c r="D185" s="190">
         <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
@@ -6175,7 +6172,7 @@
         <v>173</v>
       </c>
       <c r="C186" s="5"/>
-      <c r="D186" s="194">
+      <c r="D186" s="191">
         <f t="shared" ca="1" si="7"/>
         <v>56</v>
       </c>
@@ -6193,7 +6190,7 @@
         <v>174</v>
       </c>
       <c r="C187" s="5"/>
-      <c r="D187" s="195">
+      <c r="D187" s="192">
         <f t="shared" ca="1" si="7"/>
         <v>59</v>
       </c>
@@ -6211,7 +6208,7 @@
         <v>175</v>
       </c>
       <c r="C188" s="5"/>
-      <c r="D188" s="196">
+      <c r="D188" s="193">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>176</v>
       </c>
       <c r="C189" s="5"/>
-      <c r="D189" s="197">
+      <c r="D189" s="194">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -6247,7 +6244,7 @@
         <v>177</v>
       </c>
       <c r="C190" s="5"/>
-      <c r="D190" s="198">
+      <c r="D190" s="195">
         <f t="shared" ca="1" si="7"/>
         <v>63</v>
       </c>
@@ -6265,7 +6262,7 @@
         <v>178</v>
       </c>
       <c r="C191" s="5"/>
-      <c r="D191" s="199">
+      <c r="D191" s="196">
         <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
@@ -6283,7 +6280,7 @@
         <v>179</v>
       </c>
       <c r="C192" s="5"/>
-      <c r="D192" s="200">
+      <c r="D192" s="197">
         <f t="shared" ca="1" si="7"/>
         <v>30</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>180</v>
       </c>
       <c r="C193" s="5"/>
-      <c r="D193" s="201">
+      <c r="D193" s="198">
         <f t="shared" ca="1" si="7"/>
         <v>27</v>
       </c>
@@ -6319,7 +6316,7 @@
         <v>181</v>
       </c>
       <c r="C194" s="5"/>
-      <c r="D194" s="202">
+      <c r="D194" s="199">
         <f t="shared" ca="1" si="7"/>
         <v>80</v>
       </c>
@@ -6337,7 +6334,7 @@
         <v>182</v>
       </c>
       <c r="C195" s="5"/>
-      <c r="D195" s="203">
+      <c r="D195" s="200">
         <f t="shared" ca="1" si="7"/>
         <v>41</v>
       </c>
@@ -6355,7 +6352,7 @@
         <v>183</v>
       </c>
       <c r="C196" s="5"/>
-      <c r="D196" s="204">
+      <c r="D196" s="201">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -6373,7 +6370,7 @@
         <v>184</v>
       </c>
       <c r="C197" s="5"/>
-      <c r="D197" s="205">
+      <c r="D197" s="202">
         <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>185</v>
       </c>
       <c r="C198" s="5"/>
-      <c r="D198" s="206">
+      <c r="D198" s="203">
         <f t="shared" ca="1" si="7"/>
         <v>25</v>
       </c>
@@ -6409,7 +6406,7 @@
         <v>186</v>
       </c>
       <c r="C199" s="5"/>
-      <c r="D199" s="207">
+      <c r="D199" s="204">
         <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>187</v>
       </c>
       <c r="C200" s="5"/>
-      <c r="D200" s="208">
+      <c r="D200" s="205">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -6445,7 +6442,7 @@
         <v>188</v>
       </c>
       <c r="C201" s="5"/>
-      <c r="D201" s="209">
+      <c r="D201" s="206">
         <f t="shared" ca="1" si="7"/>
         <v>58</v>
       </c>
@@ -6463,7 +6460,7 @@
         <v>189</v>
       </c>
       <c r="C202" s="5"/>
-      <c r="D202" s="210">
+      <c r="D202" s="207">
         <f t="shared" ca="1" si="7"/>
         <v>62</v>
       </c>
@@ -6481,7 +6478,7 @@
         <v>190</v>
       </c>
       <c r="C203" s="5"/>
-      <c r="D203" s="211">
+      <c r="D203" s="208">
         <f t="shared" ca="1" si="7"/>
         <v>15</v>
       </c>
@@ -6499,7 +6496,7 @@
         <v>191</v>
       </c>
       <c r="C204" s="5"/>
-      <c r="D204" s="212">
+      <c r="D204" s="209">
         <f t="shared" ca="1" si="7"/>
         <v>99</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>192</v>
       </c>
       <c r="C205" s="5"/>
-      <c r="D205" s="213">
+      <c r="D205" s="210">
         <f t="shared" ca="1" si="7"/>
         <v>54</v>
       </c>
@@ -6535,7 +6532,7 @@
         <v>193</v>
       </c>
       <c r="C206" s="5"/>
-      <c r="D206" s="214">
+      <c r="D206" s="211">
         <f t="shared" ca="1" si="7"/>
         <v>96</v>
       </c>
@@ -6553,7 +6550,7 @@
         <v>194</v>
       </c>
       <c r="C207" s="5"/>
-      <c r="D207" s="215">
+      <c r="D207" s="212">
         <f t="shared" ref="D207:D270" ca="1" si="10">ROUND(RAND()*100,0)</f>
         <v>7</v>
       </c>
@@ -6571,7 +6568,7 @@
         <v>195</v>
       </c>
       <c r="C208" s="5"/>
-      <c r="D208" s="216">
+      <c r="D208" s="213">
         <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
@@ -6589,7 +6586,7 @@
         <v>196</v>
       </c>
       <c r="C209" s="5"/>
-      <c r="D209" s="217">
+      <c r="D209" s="214">
         <f t="shared" ca="1" si="10"/>
         <v>38</v>
       </c>
@@ -6607,7 +6604,7 @@
         <v>197</v>
       </c>
       <c r="C210" s="5"/>
-      <c r="D210" s="218">
+      <c r="D210" s="215">
         <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
@@ -6625,7 +6622,7 @@
         <v>198</v>
       </c>
       <c r="C211" s="5"/>
-      <c r="D211" s="219">
+      <c r="D211" s="216">
         <f t="shared" ca="1" si="10"/>
         <v>95</v>
       </c>
@@ -6643,7 +6640,7 @@
         <v>199</v>
       </c>
       <c r="C212" s="5"/>
-      <c r="D212" s="220">
+      <c r="D212" s="217">
         <f t="shared" ca="1" si="10"/>
         <v>75</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>200</v>
       </c>
       <c r="C213" s="5"/>
-      <c r="D213" s="221">
+      <c r="D213" s="218">
         <f t="shared" ca="1" si="10"/>
         <v>37</v>
       </c>
@@ -6679,7 +6676,7 @@
         <v>201</v>
       </c>
       <c r="C214" s="5"/>
-      <c r="D214" s="222">
+      <c r="D214" s="219">
         <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
@@ -6697,7 +6694,7 @@
         <v>202</v>
       </c>
       <c r="C215" s="5"/>
-      <c r="D215" s="223">
+      <c r="D215" s="220">
         <f t="shared" ca="1" si="10"/>
         <v>50</v>
       </c>
@@ -6715,7 +6712,7 @@
         <v>203</v>
       </c>
       <c r="C216" s="5"/>
-      <c r="D216" s="224">
+      <c r="D216" s="221">
         <f t="shared" ca="1" si="10"/>
         <v>51</v>
       </c>
@@ -6733,7 +6730,7 @@
         <v>204</v>
       </c>
       <c r="C217" s="5"/>
-      <c r="D217" s="225">
+      <c r="D217" s="222">
         <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
@@ -6751,7 +6748,7 @@
         <v>205</v>
       </c>
       <c r="C218" s="5"/>
-      <c r="D218" s="226">
+      <c r="D218" s="223">
         <f t="shared" ca="1" si="10"/>
         <v>71</v>
       </c>
@@ -6769,7 +6766,7 @@
         <v>206</v>
       </c>
       <c r="C219" s="5"/>
-      <c r="D219" s="227">
+      <c r="D219" s="224">
         <f t="shared" ca="1" si="10"/>
         <v>98</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>207</v>
       </c>
       <c r="C220" s="5"/>
-      <c r="D220" s="228">
+      <c r="D220" s="225">
         <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
@@ -6805,7 +6802,7 @@
         <v>208</v>
       </c>
       <c r="C221" s="5"/>
-      <c r="D221" s="229">
+      <c r="D221" s="226">
         <f t="shared" ca="1" si="10"/>
         <v>47</v>
       </c>
@@ -6823,7 +6820,7 @@
         <v>209</v>
       </c>
       <c r="C222" s="5"/>
-      <c r="D222" s="230">
+      <c r="D222" s="227">
         <f t="shared" ca="1" si="10"/>
         <v>15</v>
       </c>
@@ -6841,7 +6838,7 @@
         <v>210</v>
       </c>
       <c r="C223" s="5"/>
-      <c r="D223" s="231">
+      <c r="D223" s="228">
         <f t="shared" ca="1" si="10"/>
         <v>99</v>
       </c>
@@ -6859,7 +6856,7 @@
         <v>211</v>
       </c>
       <c r="C224" s="5"/>
-      <c r="D224" s="232">
+      <c r="D224" s="229">
         <f t="shared" ca="1" si="10"/>
         <v>74</v>
       </c>
@@ -6877,7 +6874,7 @@
         <v>212</v>
       </c>
       <c r="C225" s="5"/>
-      <c r="D225" s="233">
+      <c r="D225" s="230">
         <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
@@ -6895,7 +6892,7 @@
         <v>213</v>
       </c>
       <c r="C226" s="5"/>
-      <c r="D226" s="234">
+      <c r="D226" s="231">
         <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
@@ -6913,7 +6910,7 @@
         <v>214</v>
       </c>
       <c r="C227" s="5"/>
-      <c r="D227" s="235">
+      <c r="D227" s="232">
         <f t="shared" ca="1" si="10"/>
         <v>57</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>215</v>
       </c>
       <c r="C228" s="5"/>
-      <c r="D228" s="236">
+      <c r="D228" s="233">
         <f t="shared" ca="1" si="10"/>
         <v>79</v>
       </c>
@@ -6949,7 +6946,7 @@
         <v>216</v>
       </c>
       <c r="C229" s="5"/>
-      <c r="D229" s="237">
+      <c r="D229" s="234">
         <f t="shared" ca="1" si="10"/>
         <v>51</v>
       </c>
@@ -6967,7 +6964,7 @@
         <v>217</v>
       </c>
       <c r="C230" s="5"/>
-      <c r="D230" s="238">
+      <c r="D230" s="235">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -6985,7 +6982,7 @@
         <v>218</v>
       </c>
       <c r="C231" s="5"/>
-      <c r="D231" s="239">
+      <c r="D231" s="236">
         <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
@@ -7003,7 +7000,7 @@
         <v>219</v>
       </c>
       <c r="C232" s="5"/>
-      <c r="D232" s="240">
+      <c r="D232" s="237">
         <f t="shared" ca="1" si="10"/>
         <v>40</v>
       </c>
@@ -7021,7 +7018,7 @@
         <v>220</v>
       </c>
       <c r="C233" s="5"/>
-      <c r="D233" s="241">
+      <c r="D233" s="238">
         <f t="shared" ca="1" si="10"/>
         <v>31</v>
       </c>
@@ -7039,7 +7036,7 @@
         <v>221</v>
       </c>
       <c r="C234" s="5"/>
-      <c r="D234" s="242">
+      <c r="D234" s="239">
         <f t="shared" ca="1" si="10"/>
         <v>62</v>
       </c>
@@ -7057,7 +7054,7 @@
         <v>222</v>
       </c>
       <c r="C235" s="5"/>
-      <c r="D235" s="243">
+      <c r="D235" s="240">
         <f t="shared" ca="1" si="10"/>
         <v>68</v>
       </c>
@@ -7075,7 +7072,7 @@
         <v>223</v>
       </c>
       <c r="C236" s="5"/>
-      <c r="D236" s="244">
+      <c r="D236" s="241">
         <f t="shared" ca="1" si="10"/>
         <v>86</v>
       </c>
@@ -7093,7 +7090,7 @@
         <v>224</v>
       </c>
       <c r="C237" s="5"/>
-      <c r="D237" s="245">
+      <c r="D237" s="242">
         <f t="shared" ca="1" si="10"/>
         <v>61</v>
       </c>
@@ -7111,7 +7108,7 @@
         <v>225</v>
       </c>
       <c r="C238" s="5"/>
-      <c r="D238" s="246">
+      <c r="D238" s="243">
         <f t="shared" ca="1" si="10"/>
         <v>16</v>
       </c>
@@ -7129,7 +7126,7 @@
         <v>226</v>
       </c>
       <c r="C239" s="5"/>
-      <c r="D239" s="247">
+      <c r="D239" s="244">
         <f t="shared" ca="1" si="10"/>
         <v>15</v>
       </c>
@@ -7147,7 +7144,7 @@
         <v>227</v>
       </c>
       <c r="C240" s="5"/>
-      <c r="D240" s="248">
+      <c r="D240" s="245">
         <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
@@ -7165,7 +7162,7 @@
         <v>228</v>
       </c>
       <c r="C241" s="5"/>
-      <c r="D241" s="249">
+      <c r="D241" s="246">
         <f t="shared" ca="1" si="10"/>
         <v>77</v>
       </c>
@@ -7183,7 +7180,7 @@
         <v>229</v>
       </c>
       <c r="C242" s="5"/>
-      <c r="D242" s="250">
+      <c r="D242" s="247">
         <f t="shared" ca="1" si="10"/>
         <v>82</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>230</v>
       </c>
       <c r="C243" s="5"/>
-      <c r="D243" s="251">
+      <c r="D243" s="248">
         <f t="shared" ca="1" si="10"/>
         <v>4</v>
       </c>
@@ -7219,7 +7216,7 @@
         <v>231</v>
       </c>
       <c r="C244" s="5"/>
-      <c r="D244" s="252">
+      <c r="D244" s="249">
         <f t="shared" ca="1" si="10"/>
         <v>72</v>
       </c>
@@ -7237,7 +7234,7 @@
         <v>232</v>
       </c>
       <c r="C245" s="5"/>
-      <c r="D245" s="253">
+      <c r="D245" s="250">
         <f t="shared" ca="1" si="10"/>
         <v>55</v>
       </c>
@@ -7255,7 +7252,7 @@
         <v>233</v>
       </c>
       <c r="C246" s="5"/>
-      <c r="D246" s="254">
+      <c r="D246" s="251">
         <f t="shared" ca="1" si="10"/>
         <v>42</v>
       </c>
@@ -7273,7 +7270,7 @@
         <v>234</v>
       </c>
       <c r="C247" s="5"/>
-      <c r="D247" s="255">
+      <c r="D247" s="252">
         <f t="shared" ca="1" si="10"/>
         <v>68</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>235</v>
       </c>
       <c r="C248" s="5"/>
-      <c r="D248" s="256">
+      <c r="D248" s="253">
         <f t="shared" ca="1" si="10"/>
         <v>53</v>
       </c>
@@ -7309,7 +7306,7 @@
         <v>236</v>
       </c>
       <c r="C249" s="5"/>
-      <c r="D249" s="257">
+      <c r="D249" s="254">
         <f t="shared" ca="1" si="10"/>
         <v>35</v>
       </c>
@@ -7327,7 +7324,7 @@
         <v>237</v>
       </c>
       <c r="C250" s="5"/>
-      <c r="D250" s="258">
+      <c r="D250" s="255">
         <f t="shared" ca="1" si="10"/>
         <v>64</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>238</v>
       </c>
       <c r="C251" s="5"/>
-      <c r="D251" s="259">
+      <c r="D251" s="256">
         <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
@@ -7363,7 +7360,7 @@
         <v>239</v>
       </c>
       <c r="C252" s="5"/>
-      <c r="D252" s="260">
+      <c r="D252" s="257">
         <f t="shared" ca="1" si="10"/>
         <v>84</v>
       </c>
@@ -7381,7 +7378,7 @@
         <v>240</v>
       </c>
       <c r="C253" s="5"/>
-      <c r="D253" s="261">
+      <c r="D253" s="258">
         <f t="shared" ca="1" si="10"/>
         <v>14</v>
       </c>
@@ -7399,7 +7396,7 @@
         <v>241</v>
       </c>
       <c r="C254" s="5"/>
-      <c r="D254" s="262">
+      <c r="D254" s="259">
         <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
@@ -7417,7 +7414,7 @@
         <v>242</v>
       </c>
       <c r="C255" s="5"/>
-      <c r="D255" s="263">
+      <c r="D255" s="260">
         <f t="shared" ca="1" si="10"/>
         <v>85</v>
       </c>
@@ -7435,7 +7432,7 @@
         <v>243</v>
       </c>
       <c r="C256" s="5"/>
-      <c r="D256" s="264">
+      <c r="D256" s="261">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7453,7 +7450,7 @@
         <v>244</v>
       </c>
       <c r="C257" s="5"/>
-      <c r="D257" s="265">
+      <c r="D257" s="262">
         <f t="shared" ca="1" si="10"/>
         <v>80</v>
       </c>
@@ -7471,7 +7468,7 @@
         <v>245</v>
       </c>
       <c r="C258" s="5"/>
-      <c r="D258" s="266">
+      <c r="D258" s="263">
         <f t="shared" ca="1" si="10"/>
         <v>89</v>
       </c>
@@ -7489,7 +7486,7 @@
         <v>246</v>
       </c>
       <c r="C259" s="5"/>
-      <c r="D259" s="267">
+      <c r="D259" s="264">
         <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
@@ -7507,7 +7504,7 @@
         <v>247</v>
       </c>
       <c r="C260" s="5"/>
-      <c r="D260" s="268">
+      <c r="D260" s="265">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7525,7 +7522,7 @@
         <v>248</v>
       </c>
       <c r="C261" s="5"/>
-      <c r="D261" s="269">
+      <c r="D261" s="266">
         <f t="shared" ca="1" si="10"/>
         <v>11</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>249</v>
       </c>
       <c r="C262" s="5"/>
-      <c r="D262" s="270">
+      <c r="D262" s="267">
         <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
@@ -7561,7 +7558,7 @@
         <v>250</v>
       </c>
       <c r="C263" s="5"/>
-      <c r="D263" s="271">
+      <c r="D263" s="268">
         <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
@@ -7579,7 +7576,7 @@
         <v>251</v>
       </c>
       <c r="C264" s="5"/>
-      <c r="D264" s="272">
+      <c r="D264" s="269">
         <f t="shared" ca="1" si="10"/>
         <v>12</v>
       </c>
@@ -7597,7 +7594,7 @@
         <v>252</v>
       </c>
       <c r="C265" s="5"/>
-      <c r="D265" s="273">
+      <c r="D265" s="270">
         <f t="shared" ca="1" si="10"/>
         <v>53</v>
       </c>
@@ -7615,7 +7612,7 @@
         <v>253</v>
       </c>
       <c r="C266" s="5"/>
-      <c r="D266" s="274">
+      <c r="D266" s="271">
         <f t="shared" ca="1" si="10"/>
         <v>98</v>
       </c>
@@ -7633,7 +7630,7 @@
         <v>254</v>
       </c>
       <c r="C267" s="5"/>
-      <c r="D267" s="275">
+      <c r="D267" s="272">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7651,7 +7648,7 @@
         <v>255</v>
       </c>
       <c r="C268" s="5"/>
-      <c r="D268" s="276">
+      <c r="D268" s="273">
         <f t="shared" ca="1" si="10"/>
         <v>46</v>
       </c>
@@ -7669,7 +7666,7 @@
         <v>256</v>
       </c>
       <c r="C269" s="5"/>
-      <c r="D269" s="277">
+      <c r="D269" s="274">
         <f t="shared" ca="1" si="10"/>
         <v>78</v>
       </c>
@@ -7687,7 +7684,7 @@
         <v>257</v>
       </c>
       <c r="C270" s="5"/>
-      <c r="D270" s="278">
+      <c r="D270" s="275">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7705,7 +7702,7 @@
         <v>258</v>
       </c>
       <c r="C271" s="5"/>
-      <c r="D271" s="279">
+      <c r="D271" s="276">
         <f t="shared" ref="D271:D334" ca="1" si="13">ROUND(RAND()*100,0)</f>
         <v>78</v>
       </c>
@@ -7723,7 +7720,7 @@
         <v>259</v>
       </c>
       <c r="C272" s="5"/>
-      <c r="D272" s="280">
+      <c r="D272" s="277">
         <f t="shared" ca="1" si="13"/>
         <v>11</v>
       </c>
@@ -7741,7 +7738,7 @@
         <v>260</v>
       </c>
       <c r="C273" s="5"/>
-      <c r="D273" s="281">
+      <c r="D273" s="278">
         <f t="shared" ca="1" si="13"/>
         <v>19</v>
       </c>
@@ -7759,7 +7756,7 @@
         <v>261</v>
       </c>
       <c r="C274" s="5"/>
-      <c r="D274" s="282">
+      <c r="D274" s="279">
         <f t="shared" ca="1" si="13"/>
         <v>29</v>
       </c>
@@ -7777,7 +7774,7 @@
         <v>262</v>
       </c>
       <c r="C275" s="5"/>
-      <c r="D275" s="283">
+      <c r="D275" s="280">
         <f t="shared" ca="1" si="13"/>
         <v>67</v>
       </c>
@@ -7795,7 +7792,7 @@
         <v>263</v>
       </c>
       <c r="C276" s="5"/>
-      <c r="D276" s="284">
+      <c r="D276" s="281">
         <f t="shared" ca="1" si="13"/>
         <v>100</v>
       </c>
@@ -7813,7 +7810,7 @@
         <v>264</v>
       </c>
       <c r="C277" s="5"/>
-      <c r="D277" s="285">
+      <c r="D277" s="282">
         <f t="shared" ca="1" si="13"/>
         <v>31</v>
       </c>
@@ -7831,7 +7828,7 @@
         <v>265</v>
       </c>
       <c r="C278" s="5"/>
-      <c r="D278" s="286">
+      <c r="D278" s="283">
         <f t="shared" ca="1" si="13"/>
         <v>60</v>
       </c>
@@ -7849,7 +7846,7 @@
         <v>266</v>
       </c>
       <c r="C279" s="5"/>
-      <c r="D279" s="287">
+      <c r="D279" s="284">
         <f t="shared" ca="1" si="13"/>
         <v>55</v>
       </c>
@@ -7867,7 +7864,7 @@
         <v>267</v>
       </c>
       <c r="C280" s="5"/>
-      <c r="D280" s="288">
+      <c r="D280" s="285">
         <f t="shared" ca="1" si="13"/>
         <v>23</v>
       </c>
@@ -7885,7 +7882,7 @@
         <v>268</v>
       </c>
       <c r="C281" s="5"/>
-      <c r="D281" s="289">
+      <c r="D281" s="286">
         <f t="shared" ca="1" si="13"/>
         <v>18</v>
       </c>
@@ -7903,7 +7900,7 @@
         <v>269</v>
       </c>
       <c r="C282" s="5"/>
-      <c r="D282" s="290">
+      <c r="D282" s="287">
         <f t="shared" ca="1" si="13"/>
         <v>88</v>
       </c>
@@ -7921,7 +7918,7 @@
         <v>270</v>
       </c>
       <c r="C283" s="5"/>
-      <c r="D283" s="291">
+      <c r="D283" s="288">
         <f t="shared" ca="1" si="13"/>
         <v>25</v>
       </c>
@@ -7939,7 +7936,7 @@
         <v>271</v>
       </c>
       <c r="C284" s="5"/>
-      <c r="D284" s="292">
+      <c r="D284" s="289">
         <f t="shared" ca="1" si="13"/>
         <v>90</v>
       </c>
@@ -7957,7 +7954,7 @@
         <v>272</v>
       </c>
       <c r="C285" s="5"/>
-      <c r="D285" s="293">
+      <c r="D285" s="290">
         <f t="shared" ca="1" si="13"/>
         <v>8</v>
       </c>
@@ -7975,7 +7972,7 @@
         <v>273</v>
       </c>
       <c r="C286" s="5"/>
-      <c r="D286" s="294">
+      <c r="D286" s="291">
         <f t="shared" ca="1" si="13"/>
         <v>49</v>
       </c>
@@ -7993,7 +7990,7 @@
         <v>274</v>
       </c>
       <c r="C287" s="5"/>
-      <c r="D287" s="295">
+      <c r="D287" s="292">
         <f t="shared" ca="1" si="13"/>
         <v>21</v>
       </c>
@@ -8011,7 +8008,7 @@
         <v>275</v>
       </c>
       <c r="C288" s="5"/>
-      <c r="D288" s="296">
+      <c r="D288" s="293">
         <f t="shared" ca="1" si="13"/>
         <v>38</v>
       </c>
@@ -8029,7 +8026,7 @@
         <v>276</v>
       </c>
       <c r="C289" s="5"/>
-      <c r="D289" s="297">
+      <c r="D289" s="294">
         <f t="shared" ca="1" si="13"/>
         <v>30</v>
       </c>
@@ -8047,7 +8044,7 @@
         <v>277</v>
       </c>
       <c r="C290" s="5"/>
-      <c r="D290" s="298">
+      <c r="D290" s="295">
         <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
@@ -8065,7 +8062,7 @@
         <v>278</v>
       </c>
       <c r="C291" s="5"/>
-      <c r="D291" s="299">
+      <c r="D291" s="296">
         <f t="shared" ca="1" si="13"/>
         <v>33</v>
       </c>
@@ -8083,7 +8080,7 @@
         <v>279</v>
       </c>
       <c r="C292" s="5"/>
-      <c r="D292" s="300">
+      <c r="D292" s="297">
         <f t="shared" ca="1" si="13"/>
         <v>40</v>
       </c>
@@ -8101,7 +8098,7 @@
         <v>280</v>
       </c>
       <c r="C293" s="5"/>
-      <c r="D293" s="301">
+      <c r="D293" s="298">
         <f t="shared" ca="1" si="13"/>
         <v>50</v>
       </c>
@@ -8119,7 +8116,7 @@
         <v>281</v>
       </c>
       <c r="C294" s="5"/>
-      <c r="D294" s="302">
+      <c r="D294" s="299">
         <f t="shared" ca="1" si="13"/>
         <v>31</v>
       </c>
@@ -8137,7 +8134,7 @@
         <v>282</v>
       </c>
       <c r="C295" s="5"/>
-      <c r="D295" s="303">
+      <c r="D295" s="300">
         <f t="shared" ca="1" si="13"/>
         <v>30</v>
       </c>
@@ -8155,7 +8152,7 @@
         <v>283</v>
       </c>
       <c r="C296" s="5"/>
-      <c r="D296" s="304">
+      <c r="D296" s="301">
         <f t="shared" ca="1" si="13"/>
         <v>38</v>
       </c>
@@ -8173,7 +8170,7 @@
         <v>284</v>
       </c>
       <c r="C297" s="5"/>
-      <c r="D297" s="305">
+      <c r="D297" s="302">
         <f t="shared" ca="1" si="13"/>
         <v>15</v>
       </c>
@@ -8191,7 +8188,7 @@
         <v>285</v>
       </c>
       <c r="C298" s="5"/>
-      <c r="D298" s="306">
+      <c r="D298" s="303">
         <f t="shared" ca="1" si="13"/>
         <v>68</v>
       </c>
@@ -8209,7 +8206,7 @@
         <v>286</v>
       </c>
       <c r="C299" s="5"/>
-      <c r="D299" s="307">
+      <c r="D299" s="304">
         <f t="shared" ca="1" si="13"/>
         <v>59</v>
       </c>
@@ -8227,7 +8224,7 @@
         <v>287</v>
       </c>
       <c r="C300" s="5"/>
-      <c r="D300" s="308">
+      <c r="D300" s="305">
         <f t="shared" ca="1" si="13"/>
         <v>58</v>
       </c>
@@ -8245,7 +8242,7 @@
         <v>288</v>
       </c>
       <c r="C301" s="5"/>
-      <c r="D301" s="309">
+      <c r="D301" s="306">
         <f t="shared" ca="1" si="13"/>
         <v>25</v>
       </c>
@@ -8263,7 +8260,7 @@
         <v>289</v>
       </c>
       <c r="C302" s="5"/>
-      <c r="D302" s="310">
+      <c r="D302" s="307">
         <f t="shared" ca="1" si="13"/>
         <v>83</v>
       </c>
@@ -8281,7 +8278,7 @@
         <v>290</v>
       </c>
       <c r="C303" s="5"/>
-      <c r="D303" s="311">
+      <c r="D303" s="308">
         <f t="shared" ca="1" si="13"/>
         <v>53</v>
       </c>
@@ -8299,7 +8296,7 @@
         <v>291</v>
       </c>
       <c r="C304" s="5"/>
-      <c r="D304" s="312">
+      <c r="D304" s="309">
         <f t="shared" ca="1" si="13"/>
         <v>52</v>
       </c>
@@ -8317,7 +8314,7 @@
         <v>292</v>
       </c>
       <c r="C305" s="5"/>
-      <c r="D305" s="313">
+      <c r="D305" s="310">
         <f t="shared" ca="1" si="13"/>
         <v>64</v>
       </c>
@@ -8335,7 +8332,7 @@
         <v>293</v>
       </c>
       <c r="C306" s="5"/>
-      <c r="D306" s="314">
+      <c r="D306" s="311">
         <f t="shared" ca="1" si="13"/>
         <v>9</v>
       </c>
@@ -8353,7 +8350,7 @@
         <v>294</v>
       </c>
       <c r="C307" s="5"/>
-      <c r="D307" s="315">
+      <c r="D307" s="312">
         <f t="shared" ca="1" si="13"/>
         <v>70</v>
       </c>
@@ -8371,7 +8368,7 @@
         <v>295</v>
       </c>
       <c r="C308" s="5"/>
-      <c r="D308" s="316">
+      <c r="D308" s="313">
         <f t="shared" ca="1" si="13"/>
         <v>62</v>
       </c>
@@ -8389,7 +8386,7 @@
         <v>296</v>
       </c>
       <c r="C309" s="5"/>
-      <c r="D309" s="317">
+      <c r="D309" s="314">
         <f t="shared" ca="1" si="13"/>
         <v>84</v>
       </c>
@@ -8407,7 +8404,7 @@
         <v>297</v>
       </c>
       <c r="C310" s="5"/>
-      <c r="D310" s="318">
+      <c r="D310" s="315">
         <f t="shared" ca="1" si="13"/>
         <v>63</v>
       </c>
@@ -8425,7 +8422,7 @@
         <v>298</v>
       </c>
       <c r="C311" s="5"/>
-      <c r="D311" s="319">
+      <c r="D311" s="316">
         <f t="shared" ca="1" si="13"/>
         <v>32</v>
       </c>
@@ -8443,7 +8440,7 @@
         <v>299</v>
       </c>
       <c r="C312" s="5"/>
-      <c r="D312" s="320">
+      <c r="D312" s="317">
         <f t="shared" ca="1" si="13"/>
         <v>56</v>
       </c>
@@ -8461,7 +8458,7 @@
         <v>300</v>
       </c>
       <c r="C313" s="5"/>
-      <c r="D313" s="321">
+      <c r="D313" s="318">
         <f t="shared" ca="1" si="13"/>
         <v>90</v>
       </c>
@@ -8479,7 +8476,7 @@
         <v>301</v>
       </c>
       <c r="C314" s="5"/>
-      <c r="D314" s="322">
+      <c r="D314" s="319">
         <f t="shared" ca="1" si="13"/>
         <v>83</v>
       </c>
@@ -8497,7 +8494,7 @@
         <v>302</v>
       </c>
       <c r="C315" s="5"/>
-      <c r="D315" s="323">
+      <c r="D315" s="320">
         <f t="shared" ca="1" si="13"/>
         <v>54</v>
       </c>
@@ -8515,7 +8512,7 @@
         <v>303</v>
       </c>
       <c r="C316" s="5"/>
-      <c r="D316" s="324">
+      <c r="D316" s="321">
         <f t="shared" ca="1" si="13"/>
         <v>51</v>
       </c>
@@ -8533,7 +8530,7 @@
         <v>304</v>
       </c>
       <c r="C317" s="5"/>
-      <c r="D317" s="325">
+      <c r="D317" s="322">
         <f t="shared" ca="1" si="13"/>
         <v>87</v>
       </c>
@@ -8551,7 +8548,7 @@
         <v>305</v>
       </c>
       <c r="C318" s="5"/>
-      <c r="D318" s="326">
+      <c r="D318" s="323">
         <f t="shared" ca="1" si="13"/>
         <v>34</v>
       </c>
@@ -8569,7 +8566,7 @@
         <v>306</v>
       </c>
       <c r="C319" s="5"/>
-      <c r="D319" s="327">
+      <c r="D319" s="324">
         <f t="shared" ca="1" si="13"/>
         <v>32</v>
       </c>
@@ -8587,7 +8584,7 @@
         <v>307</v>
       </c>
       <c r="C320" s="5"/>
-      <c r="D320" s="328">
+      <c r="D320" s="325">
         <f t="shared" ca="1" si="13"/>
         <v>57</v>
       </c>
@@ -8605,7 +8602,7 @@
         <v>308</v>
       </c>
       <c r="C321" s="5"/>
-      <c r="D321" s="329">
+      <c r="D321" s="326">
         <f t="shared" ca="1" si="13"/>
         <v>54</v>
       </c>
@@ -8623,7 +8620,7 @@
         <v>309</v>
       </c>
       <c r="C322" s="5"/>
-      <c r="D322" s="330">
+      <c r="D322" s="327">
         <f t="shared" ca="1" si="13"/>
         <v>69</v>
       </c>
@@ -8641,7 +8638,7 @@
         <v>310</v>
       </c>
       <c r="C323" s="5"/>
-      <c r="D323" s="331">
+      <c r="D323" s="328">
         <f t="shared" ca="1" si="13"/>
         <v>59</v>
       </c>
@@ -8659,7 +8656,7 @@
         <v>311</v>
       </c>
       <c r="C324" s="5"/>
-      <c r="D324" s="332">
+      <c r="D324" s="329">
         <f t="shared" ca="1" si="13"/>
         <v>48</v>
       </c>
@@ -8677,7 +8674,7 @@
         <v>312</v>
       </c>
       <c r="C325" s="5"/>
-      <c r="D325" s="333">
+      <c r="D325" s="330">
         <f t="shared" ca="1" si="13"/>
         <v>48</v>
       </c>
@@ -8695,7 +8692,7 @@
         <v>313</v>
       </c>
       <c r="C326" s="5"/>
-      <c r="D326" s="334">
+      <c r="D326" s="331">
         <f t="shared" ca="1" si="13"/>
         <v>44</v>
       </c>
@@ -8713,7 +8710,7 @@
         <v>314</v>
       </c>
       <c r="C327" s="5"/>
-      <c r="D327" s="335">
+      <c r="D327" s="332">
         <f t="shared" ca="1" si="13"/>
         <v>37</v>
       </c>
@@ -8731,7 +8728,7 @@
         <v>315</v>
       </c>
       <c r="C328" s="5"/>
-      <c r="D328" s="336">
+      <c r="D328" s="333">
         <f t="shared" ca="1" si="13"/>
         <v>58</v>
       </c>
@@ -8749,7 +8746,7 @@
         <v>316</v>
       </c>
       <c r="C329" s="5"/>
-      <c r="D329" s="337">
+      <c r="D329" s="334">
         <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
@@ -8767,7 +8764,7 @@
         <v>317</v>
       </c>
       <c r="C330" s="5"/>
-      <c r="D330" s="338">
+      <c r="D330" s="335">
         <f t="shared" ca="1" si="13"/>
         <v>32</v>
       </c>
@@ -8785,7 +8782,7 @@
         <v>318</v>
       </c>
       <c r="C331" s="5"/>
-      <c r="D331" s="339">
+      <c r="D331" s="336">
         <f t="shared" ca="1" si="13"/>
         <v>16</v>
       </c>
@@ -8803,7 +8800,7 @@
         <v>319</v>
       </c>
       <c r="C332" s="5"/>
-      <c r="D332" s="340">
+      <c r="D332" s="337">
         <f t="shared" ca="1" si="13"/>
         <v>23</v>
       </c>
@@ -8821,7 +8818,7 @@
         <v>320</v>
       </c>
       <c r="C333" s="5"/>
-      <c r="D333" s="341">
+      <c r="D333" s="338">
         <f t="shared" ca="1" si="13"/>
         <v>35</v>
       </c>
@@ -8839,7 +8836,7 @@
         <v>321</v>
       </c>
       <c r="C334" s="5"/>
-      <c r="D334" s="342">
+      <c r="D334" s="339">
         <f t="shared" ca="1" si="13"/>
         <v>20</v>
       </c>
@@ -8857,7 +8854,7 @@
         <v>322</v>
       </c>
       <c r="C335" s="5"/>
-      <c r="D335" s="343">
+      <c r="D335" s="340">
         <f t="shared" ref="D335:D398" ca="1" si="16">ROUND(RAND()*100,0)</f>
         <v>62</v>
       </c>
@@ -8875,7 +8872,7 @@
         <v>323</v>
       </c>
       <c r="C336" s="5"/>
-      <c r="D336" s="344">
+      <c r="D336" s="341">
         <f t="shared" ca="1" si="16"/>
         <v>82</v>
       </c>
@@ -8893,7 +8890,7 @@
         <v>324</v>
       </c>
       <c r="C337" s="5"/>
-      <c r="D337" s="345">
+      <c r="D337" s="342">
         <f t="shared" ca="1" si="16"/>
         <v>31</v>
       </c>
@@ -8911,7 +8908,7 @@
         <v>325</v>
       </c>
       <c r="C338" s="5"/>
-      <c r="D338" s="346">
+      <c r="D338" s="343">
         <f t="shared" ca="1" si="16"/>
         <v>91</v>
       </c>
@@ -8929,7 +8926,7 @@
         <v>326</v>
       </c>
       <c r="C339" s="5"/>
-      <c r="D339" s="347">
+      <c r="D339" s="344">
         <f t="shared" ca="1" si="16"/>
         <v>81</v>
       </c>
@@ -8947,7 +8944,7 @@
         <v>327</v>
       </c>
       <c r="C340" s="5"/>
-      <c r="D340" s="348">
+      <c r="D340" s="345">
         <f t="shared" ca="1" si="16"/>
         <v>3</v>
       </c>
@@ -8965,7 +8962,7 @@
         <v>328</v>
       </c>
       <c r="C341" s="5"/>
-      <c r="D341" s="349">
+      <c r="D341" s="346">
         <f t="shared" ca="1" si="16"/>
         <v>92</v>
       </c>
@@ -8983,7 +8980,7 @@
         <v>329</v>
       </c>
       <c r="C342" s="5"/>
-      <c r="D342" s="350">
+      <c r="D342" s="347">
         <f t="shared" ca="1" si="16"/>
         <v>60</v>
       </c>
@@ -9001,7 +8998,7 @@
         <v>330</v>
       </c>
       <c r="C343" s="5"/>
-      <c r="D343" s="351">
+      <c r="D343" s="348">
         <f t="shared" ca="1" si="16"/>
         <v>93</v>
       </c>
@@ -9019,7 +9016,7 @@
         <v>331</v>
       </c>
       <c r="C344" s="5"/>
-      <c r="D344" s="352">
+      <c r="D344" s="349">
         <f t="shared" ca="1" si="16"/>
         <v>24</v>
       </c>
@@ -9037,7 +9034,7 @@
         <v>332</v>
       </c>
       <c r="C345" s="5"/>
-      <c r="D345" s="353">
+      <c r="D345" s="350">
         <f t="shared" ca="1" si="16"/>
         <v>74</v>
       </c>
@@ -9055,7 +9052,7 @@
         <v>333</v>
       </c>
       <c r="C346" s="5"/>
-      <c r="D346" s="354">
+      <c r="D346" s="351">
         <f t="shared" ca="1" si="16"/>
         <v>30</v>
       </c>
@@ -9073,7 +9070,7 @@
         <v>334</v>
       </c>
       <c r="C347" s="5"/>
-      <c r="D347" s="355">
+      <c r="D347" s="352">
         <f t="shared" ca="1" si="16"/>
         <v>21</v>
       </c>
@@ -9091,7 +9088,7 @@
         <v>335</v>
       </c>
       <c r="C348" s="5"/>
-      <c r="D348" s="356">
+      <c r="D348" s="353">
         <f t="shared" ca="1" si="16"/>
         <v>37</v>
       </c>
@@ -9109,7 +9106,7 @@
         <v>336</v>
       </c>
       <c r="C349" s="5"/>
-      <c r="D349" s="357">
+      <c r="D349" s="354">
         <f t="shared" ca="1" si="16"/>
         <v>50</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>337</v>
       </c>
       <c r="C350" s="5"/>
-      <c r="D350" s="358">
+      <c r="D350" s="355">
         <f t="shared" ca="1" si="16"/>
         <v>21</v>
       </c>
@@ -9145,7 +9142,7 @@
         <v>338</v>
       </c>
       <c r="C351" s="5"/>
-      <c r="D351" s="359">
+      <c r="D351" s="356">
         <f t="shared" ca="1" si="16"/>
         <v>19</v>
       </c>
@@ -9163,7 +9160,7 @@
         <v>339</v>
       </c>
       <c r="C352" s="5"/>
-      <c r="D352" s="360">
+      <c r="D352" s="357">
         <f t="shared" ca="1" si="16"/>
         <v>91</v>
       </c>
@@ -9181,7 +9178,7 @@
         <v>340</v>
       </c>
       <c r="C353" s="5"/>
-      <c r="D353" s="361">
+      <c r="D353" s="358">
         <f t="shared" ca="1" si="16"/>
         <v>49</v>
       </c>
@@ -9199,7 +9196,7 @@
         <v>341</v>
       </c>
       <c r="C354" s="5"/>
-      <c r="D354" s="362">
+      <c r="D354" s="359">
         <f t="shared" ca="1" si="16"/>
         <v>86</v>
       </c>
@@ -9217,7 +9214,7 @@
         <v>342</v>
       </c>
       <c r="C355" s="5"/>
-      <c r="D355" s="363">
+      <c r="D355" s="360">
         <f t="shared" ca="1" si="16"/>
         <v>26</v>
       </c>
@@ -9235,7 +9232,7 @@
         <v>343</v>
       </c>
       <c r="C356" s="5"/>
-      <c r="D356" s="364">
+      <c r="D356" s="361">
         <f t="shared" ca="1" si="16"/>
         <v>87</v>
       </c>
@@ -9253,7 +9250,7 @@
         <v>344</v>
       </c>
       <c r="C357" s="5"/>
-      <c r="D357" s="365">
+      <c r="D357" s="362">
         <f t="shared" ca="1" si="16"/>
         <v>57</v>
       </c>
@@ -9271,7 +9268,7 @@
         <v>345</v>
       </c>
       <c r="C358" s="5"/>
-      <c r="D358" s="366">
+      <c r="D358" s="363">
         <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
@@ -9289,7 +9286,7 @@
         <v>346</v>
       </c>
       <c r="C359" s="5"/>
-      <c r="D359" s="367">
+      <c r="D359" s="364">
         <f t="shared" ca="1" si="16"/>
         <v>94</v>
       </c>
@@ -9307,7 +9304,7 @@
         <v>347</v>
       </c>
       <c r="C360" s="5"/>
-      <c r="D360" s="368">
+      <c r="D360" s="365">
         <f t="shared" ca="1" si="16"/>
         <v>7</v>
       </c>
@@ -9325,7 +9322,7 @@
         <v>348</v>
       </c>
       <c r="C361" s="5"/>
-      <c r="D361" s="369">
+      <c r="D361" s="366">
         <f t="shared" ca="1" si="16"/>
         <v>5</v>
       </c>
@@ -9343,7 +9340,7 @@
         <v>349</v>
       </c>
       <c r="C362" s="5"/>
-      <c r="D362" s="370">
+      <c r="D362" s="367">
         <f t="shared" ca="1" si="16"/>
         <v>13</v>
       </c>
@@ -9361,7 +9358,7 @@
         <v>350</v>
       </c>
       <c r="C363" s="5"/>
-      <c r="D363" s="371">
+      <c r="D363" s="368">
         <f t="shared" ca="1" si="16"/>
         <v>56</v>
       </c>
@@ -9379,7 +9376,7 @@
         <v>351</v>
       </c>
       <c r="C364" s="5"/>
-      <c r="D364" s="372">
+      <c r="D364" s="369">
         <f t="shared" ca="1" si="16"/>
         <v>67</v>
       </c>
@@ -9397,7 +9394,7 @@
         <v>352</v>
       </c>
       <c r="C365" s="5"/>
-      <c r="D365" s="373">
+      <c r="D365" s="370">
         <f t="shared" ca="1" si="16"/>
         <v>15</v>
       </c>
@@ -9415,7 +9412,7 @@
         <v>353</v>
       </c>
       <c r="C366" s="5"/>
-      <c r="D366" s="374">
+      <c r="D366" s="371">
         <f t="shared" ca="1" si="16"/>
         <v>37</v>
       </c>
@@ -9433,7 +9430,7 @@
         <v>354</v>
       </c>
       <c r="C367" s="5"/>
-      <c r="D367" s="375">
+      <c r="D367" s="372">
         <f t="shared" ca="1" si="16"/>
         <v>82</v>
       </c>
@@ -9451,7 +9448,7 @@
         <v>355</v>
       </c>
       <c r="C368" s="5"/>
-      <c r="D368" s="376">
+      <c r="D368" s="373">
         <f t="shared" ca="1" si="16"/>
         <v>27</v>
       </c>
@@ -9469,7 +9466,7 @@
         <v>356</v>
       </c>
       <c r="C369" s="5"/>
-      <c r="D369" s="377">
+      <c r="D369" s="374">
         <f t="shared" ca="1" si="16"/>
         <v>42</v>
       </c>
@@ -9487,7 +9484,7 @@
         <v>357</v>
       </c>
       <c r="C370" s="5"/>
-      <c r="D370" s="378">
+      <c r="D370" s="375">
         <f t="shared" ca="1" si="16"/>
         <v>44</v>
       </c>
@@ -9505,7 +9502,7 @@
         <v>358</v>
       </c>
       <c r="C371" s="5"/>
-      <c r="D371" s="379">
+      <c r="D371" s="376">
         <f t="shared" ca="1" si="16"/>
         <v>88</v>
       </c>
@@ -9523,7 +9520,7 @@
         <v>359</v>
       </c>
       <c r="C372" s="5"/>
-      <c r="D372" s="380">
+      <c r="D372" s="377">
         <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
@@ -9541,7 +9538,7 @@
         <v>360</v>
       </c>
       <c r="C373" s="5"/>
-      <c r="D373" s="381">
+      <c r="D373" s="378">
         <f t="shared" ca="1" si="16"/>
         <v>27</v>
       </c>
@@ -9558,7 +9555,7 @@
         <f t="shared" ref="B374:B437" si="19">+B373+1</f>
         <v>361</v>
       </c>
-      <c r="D374" s="382">
+      <c r="D374" s="379">
         <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
@@ -9572,7 +9569,7 @@
         <f t="shared" si="19"/>
         <v>362</v>
       </c>
-      <c r="D375" s="383">
+      <c r="D375" s="380">
         <f t="shared" ca="1" si="16"/>
         <v>21</v>
       </c>
@@ -9586,7 +9583,7 @@
         <f t="shared" si="19"/>
         <v>363</v>
       </c>
-      <c r="D376" s="384">
+      <c r="D376" s="381">
         <f t="shared" ca="1" si="16"/>
         <v>67</v>
       </c>
@@ -9600,7 +9597,7 @@
         <f t="shared" si="19"/>
         <v>364</v>
       </c>
-      <c r="D377" s="385">
+      <c r="D377" s="382">
         <f t="shared" ca="1" si="16"/>
         <v>46</v>
       </c>
@@ -9614,7 +9611,7 @@
         <f t="shared" si="19"/>
         <v>365</v>
       </c>
-      <c r="D378" s="386">
+      <c r="D378" s="383">
         <f t="shared" ca="1" si="16"/>
         <v>59</v>
       </c>
@@ -9628,7 +9625,7 @@
         <f t="shared" si="19"/>
         <v>366</v>
       </c>
-      <c r="D379" s="387">
+      <c r="D379" s="384">
         <f t="shared" ca="1" si="16"/>
         <v>52</v>
       </c>
@@ -9642,7 +9639,7 @@
         <f t="shared" si="19"/>
         <v>367</v>
       </c>
-      <c r="D380" s="388">
+      <c r="D380" s="385">
         <f t="shared" ca="1" si="16"/>
         <v>88</v>
       </c>
@@ -9656,7 +9653,7 @@
         <f t="shared" si="19"/>
         <v>368</v>
       </c>
-      <c r="D381" s="389">
+      <c r="D381" s="386">
         <f t="shared" ca="1" si="16"/>
         <v>90</v>
       </c>
@@ -9670,7 +9667,7 @@
         <f t="shared" si="19"/>
         <v>369</v>
       </c>
-      <c r="D382" s="390">
+      <c r="D382" s="387">
         <f t="shared" ca="1" si="16"/>
         <v>44</v>
       </c>
@@ -9684,7 +9681,7 @@
         <f t="shared" si="19"/>
         <v>370</v>
       </c>
-      <c r="D383" s="391">
+      <c r="D383" s="388">
         <f t="shared" ca="1" si="16"/>
         <v>26</v>
       </c>
@@ -9698,7 +9695,7 @@
         <f t="shared" si="19"/>
         <v>371</v>
       </c>
-      <c r="D384" s="392">
+      <c r="D384" s="389">
         <f t="shared" ca="1" si="16"/>
         <v>7</v>
       </c>
@@ -9712,7 +9709,7 @@
         <f t="shared" si="19"/>
         <v>372</v>
       </c>
-      <c r="D385" s="393">
+      <c r="D385" s="390">
         <f t="shared" ca="1" si="16"/>
         <v>20</v>
       </c>
@@ -9726,7 +9723,7 @@
         <f t="shared" si="19"/>
         <v>373</v>
       </c>
-      <c r="D386" s="394">
+      <c r="D386" s="391">
         <f t="shared" ca="1" si="16"/>
         <v>96</v>
       </c>
@@ -9740,7 +9737,7 @@
         <f t="shared" si="19"/>
         <v>374</v>
       </c>
-      <c r="D387" s="395">
+      <c r="D387" s="392">
         <f t="shared" ca="1" si="16"/>
         <v>43</v>
       </c>
@@ -9754,7 +9751,7 @@
         <f t="shared" si="19"/>
         <v>375</v>
       </c>
-      <c r="D388" s="396">
+      <c r="D388" s="393">
         <f t="shared" ca="1" si="16"/>
         <v>30</v>
       </c>
@@ -9768,7 +9765,7 @@
         <f t="shared" si="19"/>
         <v>376</v>
       </c>
-      <c r="D389" s="397">
+      <c r="D389" s="394">
         <f t="shared" ca="1" si="16"/>
         <v>54</v>
       </c>
@@ -9782,7 +9779,7 @@
         <f t="shared" si="19"/>
         <v>377</v>
       </c>
-      <c r="D390" s="398">
+      <c r="D390" s="395">
         <f t="shared" ca="1" si="16"/>
         <v>91</v>
       </c>
@@ -9796,7 +9793,7 @@
         <f t="shared" si="19"/>
         <v>378</v>
       </c>
-      <c r="D391" s="399">
+      <c r="D391" s="396">
         <f t="shared" ca="1" si="16"/>
         <v>66</v>
       </c>
@@ -9810,7 +9807,7 @@
         <f t="shared" si="19"/>
         <v>379</v>
       </c>
-      <c r="D392" s="400">
+      <c r="D392" s="397">
         <f t="shared" ca="1" si="16"/>
         <v>59</v>
       </c>
@@ -9824,7 +9821,7 @@
         <f t="shared" si="19"/>
         <v>380</v>
       </c>
-      <c r="D393" s="401">
+      <c r="D393" s="398">
         <f t="shared" ca="1" si="16"/>
         <v>18</v>
       </c>
@@ -9838,7 +9835,7 @@
         <f t="shared" si="19"/>
         <v>381</v>
       </c>
-      <c r="D394" s="402">
+      <c r="D394" s="399">
         <f t="shared" ca="1" si="16"/>
         <v>8</v>
       </c>
@@ -9852,7 +9849,7 @@
         <f t="shared" si="19"/>
         <v>382</v>
       </c>
-      <c r="D395" s="403">
+      <c r="D395" s="400">
         <f t="shared" ca="1" si="16"/>
         <v>20</v>
       </c>
@@ -9866,7 +9863,7 @@
         <f t="shared" si="19"/>
         <v>383</v>
       </c>
-      <c r="D396" s="404">
+      <c r="D396" s="401">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
@@ -9880,7 +9877,7 @@
         <f t="shared" si="19"/>
         <v>384</v>
       </c>
-      <c r="D397" s="405">
+      <c r="D397" s="402">
         <f t="shared" ca="1" si="16"/>
         <v>11</v>
       </c>
@@ -9894,7 +9891,7 @@
         <f t="shared" si="19"/>
         <v>385</v>
       </c>
-      <c r="D398" s="406">
+      <c r="D398" s="403">
         <f t="shared" ca="1" si="16"/>
         <v>57</v>
       </c>
@@ -9908,7 +9905,7 @@
         <f t="shared" si="19"/>
         <v>386</v>
       </c>
-      <c r="D399" s="407">
+      <c r="D399" s="404">
         <f t="shared" ref="D399:D462" ca="1" si="20">ROUND(RAND()*100,0)</f>
         <v>38</v>
       </c>
@@ -9922,7 +9919,7 @@
         <f t="shared" si="19"/>
         <v>387</v>
       </c>
-      <c r="D400" s="408">
+      <c r="D400" s="405">
         <f t="shared" ca="1" si="20"/>
         <v>14</v>
       </c>
@@ -9936,7 +9933,7 @@
         <f t="shared" si="19"/>
         <v>388</v>
       </c>
-      <c r="D401" s="409">
+      <c r="D401" s="406">
         <f t="shared" ca="1" si="20"/>
         <v>12</v>
       </c>
@@ -9950,7 +9947,7 @@
         <f t="shared" si="19"/>
         <v>389</v>
       </c>
-      <c r="D402" s="410">
+      <c r="D402" s="407">
         <f t="shared" ca="1" si="20"/>
         <v>63</v>
       </c>
@@ -9964,7 +9961,7 @@
         <f t="shared" si="19"/>
         <v>390</v>
       </c>
-      <c r="D403" s="411">
+      <c r="D403" s="408">
         <f t="shared" ca="1" si="20"/>
         <v>66</v>
       </c>
@@ -9978,7 +9975,7 @@
         <f t="shared" si="19"/>
         <v>391</v>
       </c>
-      <c r="D404" s="412">
+      <c r="D404" s="409">
         <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
@@ -9992,7 +9989,7 @@
         <f t="shared" si="19"/>
         <v>392</v>
       </c>
-      <c r="D405" s="413">
+      <c r="D405" s="410">
         <f t="shared" ca="1" si="20"/>
         <v>25</v>
       </c>
@@ -10006,7 +10003,7 @@
         <f t="shared" si="19"/>
         <v>393</v>
       </c>
-      <c r="D406" s="414">
+      <c r="D406" s="411">
         <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
@@ -10020,7 +10017,7 @@
         <f t="shared" si="19"/>
         <v>394</v>
       </c>
-      <c r="D407" s="415">
+      <c r="D407" s="412">
         <f t="shared" ca="1" si="20"/>
         <v>86</v>
       </c>
@@ -10034,7 +10031,7 @@
         <f t="shared" si="19"/>
         <v>395</v>
       </c>
-      <c r="D408" s="416">
+      <c r="D408" s="413">
         <f t="shared" ca="1" si="20"/>
         <v>91</v>
       </c>
@@ -10048,7 +10045,7 @@
         <f t="shared" si="19"/>
         <v>396</v>
       </c>
-      <c r="D409" s="417">
+      <c r="D409" s="414">
         <f t="shared" ca="1" si="20"/>
         <v>52</v>
       </c>
@@ -10062,7 +10059,7 @@
         <f t="shared" si="19"/>
         <v>397</v>
       </c>
-      <c r="D410" s="418">
+      <c r="D410" s="415">
         <f t="shared" ca="1" si="20"/>
         <v>68</v>
       </c>
@@ -10076,7 +10073,7 @@
         <f t="shared" si="19"/>
         <v>398</v>
       </c>
-      <c r="D411" s="419">
+      <c r="D411" s="416">
         <f t="shared" ca="1" si="20"/>
         <v>97</v>
       </c>
@@ -10090,7 +10087,7 @@
         <f t="shared" si="19"/>
         <v>399</v>
       </c>
-      <c r="D412" s="420">
+      <c r="D412" s="417">
         <f t="shared" ca="1" si="20"/>
         <v>54</v>
       </c>
@@ -10104,7 +10101,7 @@
         <f t="shared" si="19"/>
         <v>400</v>
       </c>
-      <c r="D413" s="421">
+      <c r="D413" s="418">
         <f t="shared" ca="1" si="20"/>
         <v>5</v>
       </c>
@@ -10118,7 +10115,7 @@
         <f t="shared" si="19"/>
         <v>401</v>
       </c>
-      <c r="D414" s="422">
+      <c r="D414" s="419">
         <f t="shared" ca="1" si="20"/>
         <v>99</v>
       </c>
@@ -10132,7 +10129,7 @@
         <f t="shared" si="19"/>
         <v>402</v>
       </c>
-      <c r="D415" s="423">
+      <c r="D415" s="420">
         <f t="shared" ca="1" si="20"/>
         <v>99</v>
       </c>
@@ -10146,7 +10143,7 @@
         <f t="shared" si="19"/>
         <v>403</v>
       </c>
-      <c r="D416" s="424">
+      <c r="D416" s="421">
         <f t="shared" ca="1" si="20"/>
         <v>92</v>
       </c>
@@ -10160,7 +10157,7 @@
         <f t="shared" si="19"/>
         <v>404</v>
       </c>
-      <c r="D417" s="425">
+      <c r="D417" s="422">
         <f t="shared" ca="1" si="20"/>
         <v>13</v>
       </c>
@@ -10174,7 +10171,7 @@
         <f t="shared" si="19"/>
         <v>405</v>
       </c>
-      <c r="D418" s="426">
+      <c r="D418" s="423">
         <f t="shared" ca="1" si="20"/>
         <v>51</v>
       </c>
@@ -10188,7 +10185,7 @@
         <f t="shared" si="19"/>
         <v>406</v>
       </c>
-      <c r="D419" s="427">
+      <c r="D419" s="424">
         <f t="shared" ca="1" si="20"/>
         <v>86</v>
       </c>
@@ -10202,7 +10199,7 @@
         <f t="shared" si="19"/>
         <v>407</v>
       </c>
-      <c r="D420" s="428">
+      <c r="D420" s="425">
         <f t="shared" ca="1" si="20"/>
         <v>10</v>
       </c>
@@ -10216,7 +10213,7 @@
         <f t="shared" si="19"/>
         <v>408</v>
       </c>
-      <c r="D421" s="429">
+      <c r="D421" s="426">
         <f t="shared" ca="1" si="20"/>
         <v>36</v>
       </c>
@@ -10230,7 +10227,7 @@
         <f t="shared" si="19"/>
         <v>409</v>
       </c>
-      <c r="D422" s="430">
+      <c r="D422" s="427">
         <f t="shared" ca="1" si="20"/>
         <v>31</v>
       </c>
@@ -10244,7 +10241,7 @@
         <f t="shared" si="19"/>
         <v>410</v>
       </c>
-      <c r="D423" s="431">
+      <c r="D423" s="428">
         <f t="shared" ca="1" si="20"/>
         <v>44</v>
       </c>
@@ -10258,7 +10255,7 @@
         <f t="shared" si="19"/>
         <v>411</v>
       </c>
-      <c r="D424" s="432">
+      <c r="D424" s="429">
         <f t="shared" ca="1" si="20"/>
         <v>100</v>
       </c>
@@ -10272,7 +10269,7 @@
         <f t="shared" si="19"/>
         <v>412</v>
       </c>
-      <c r="D425" s="433">
+      <c r="D425" s="430">
         <f t="shared" ca="1" si="20"/>
         <v>44</v>
       </c>
@@ -10286,7 +10283,7 @@
         <f t="shared" si="19"/>
         <v>413</v>
       </c>
-      <c r="D426" s="434">
+      <c r="D426" s="431">
         <f t="shared" ca="1" si="20"/>
         <v>36</v>
       </c>
@@ -10300,7 +10297,7 @@
         <f t="shared" si="19"/>
         <v>414</v>
       </c>
-      <c r="D427" s="435">
+      <c r="D427" s="432">
         <f t="shared" ca="1" si="20"/>
         <v>78</v>
       </c>
@@ -10314,7 +10311,7 @@
         <f t="shared" si="19"/>
         <v>415</v>
       </c>
-      <c r="D428" s="436">
+      <c r="D428" s="433">
         <f t="shared" ca="1" si="20"/>
         <v>38</v>
       </c>
@@ -10328,7 +10325,7 @@
         <f t="shared" si="19"/>
         <v>416</v>
       </c>
-      <c r="D429" s="437">
+      <c r="D429" s="434">
         <f t="shared" ca="1" si="20"/>
         <v>99</v>
       </c>
@@ -10342,7 +10339,7 @@
         <f t="shared" si="19"/>
         <v>417</v>
       </c>
-      <c r="D430" s="438">
+      <c r="D430" s="435">
         <f t="shared" ca="1" si="20"/>
         <v>27</v>
       </c>
@@ -10356,7 +10353,7 @@
         <f t="shared" si="19"/>
         <v>418</v>
       </c>
-      <c r="D431" s="439">
+      <c r="D431" s="436">
         <f t="shared" ca="1" si="20"/>
         <v>92</v>
       </c>
@@ -10370,7 +10367,7 @@
         <f t="shared" si="19"/>
         <v>419</v>
       </c>
-      <c r="D432" s="440">
+      <c r="D432" s="437">
         <f t="shared" ca="1" si="20"/>
         <v>38</v>
       </c>
@@ -10384,7 +10381,7 @@
         <f t="shared" si="19"/>
         <v>420</v>
       </c>
-      <c r="D433" s="441">
+      <c r="D433" s="438">
         <f t="shared" ca="1" si="20"/>
         <v>18</v>
       </c>
@@ -10398,7 +10395,7 @@
         <f t="shared" si="19"/>
         <v>421</v>
       </c>
-      <c r="D434" s="442">
+      <c r="D434" s="439">
         <f t="shared" ca="1" si="20"/>
         <v>80</v>
       </c>
@@ -10412,7 +10409,7 @@
         <f t="shared" si="19"/>
         <v>422</v>
       </c>
-      <c r="D435" s="443">
+      <c r="D435" s="440">
         <f t="shared" ca="1" si="20"/>
         <v>2</v>
       </c>
@@ -10426,7 +10423,7 @@
         <f t="shared" si="19"/>
         <v>423</v>
       </c>
-      <c r="D436" s="444">
+      <c r="D436" s="441">
         <f t="shared" ca="1" si="20"/>
         <v>61</v>
       </c>
@@ -10440,7 +10437,7 @@
         <f t="shared" si="19"/>
         <v>424</v>
       </c>
-      <c r="D437" s="445">
+      <c r="D437" s="442">
         <f t="shared" ca="1" si="20"/>
         <v>8</v>
       </c>
@@ -10454,7 +10451,7 @@
         <f t="shared" ref="B438:B462" si="22">+B437+1</f>
         <v>425</v>
       </c>
-      <c r="D438" s="446">
+      <c r="D438" s="443">
         <f t="shared" ca="1" si="20"/>
         <v>37</v>
       </c>
@@ -10468,7 +10465,7 @@
         <f t="shared" si="22"/>
         <v>426</v>
       </c>
-      <c r="D439" s="447">
+      <c r="D439" s="444">
         <f t="shared" ca="1" si="20"/>
         <v>47</v>
       </c>
@@ -10482,7 +10479,7 @@
         <f t="shared" si="22"/>
         <v>427</v>
       </c>
-      <c r="D440" s="448">
+      <c r="D440" s="445">
         <f t="shared" ca="1" si="20"/>
         <v>32</v>
       </c>
@@ -10496,7 +10493,7 @@
         <f t="shared" si="22"/>
         <v>428</v>
       </c>
-      <c r="D441" s="449">
+      <c r="D441" s="446">
         <f t="shared" ca="1" si="20"/>
         <v>69</v>
       </c>
@@ -10510,7 +10507,7 @@
         <f t="shared" si="22"/>
         <v>429</v>
       </c>
-      <c r="D442" s="450">
+      <c r="D442" s="447">
         <f t="shared" ca="1" si="20"/>
         <v>80</v>
       </c>
@@ -10524,7 +10521,7 @@
         <f t="shared" si="22"/>
         <v>430</v>
       </c>
-      <c r="D443" s="451">
+      <c r="D443" s="448">
         <f t="shared" ca="1" si="20"/>
         <v>76</v>
       </c>
@@ -10538,7 +10535,7 @@
         <f t="shared" si="22"/>
         <v>431</v>
       </c>
-      <c r="D444" s="452">
+      <c r="D444" s="449">
         <f t="shared" ca="1" si="20"/>
         <v>63</v>
       </c>
@@ -10552,7 +10549,7 @@
         <f t="shared" si="22"/>
         <v>432</v>
       </c>
-      <c r="D445" s="453">
+      <c r="D445" s="450">
         <f t="shared" ca="1" si="20"/>
         <v>83</v>
       </c>
@@ -10566,7 +10563,7 @@
         <f t="shared" si="22"/>
         <v>433</v>
       </c>
-      <c r="D446" s="454">
+      <c r="D446" s="451">
         <f t="shared" ca="1" si="20"/>
         <v>38</v>
       </c>
@@ -10580,7 +10577,7 @@
         <f t="shared" si="22"/>
         <v>434</v>
       </c>
-      <c r="D447" s="455">
+      <c r="D447" s="452">
         <f t="shared" ca="1" si="20"/>
         <v>69</v>
       </c>
@@ -10594,7 +10591,7 @@
         <f t="shared" si="22"/>
         <v>435</v>
       </c>
-      <c r="D448" s="456">
+      <c r="D448" s="453">
         <f t="shared" ca="1" si="20"/>
         <v>93</v>
       </c>
@@ -10608,7 +10605,7 @@
         <f t="shared" si="22"/>
         <v>436</v>
       </c>
-      <c r="D449" s="457">
+      <c r="D449" s="454">
         <f t="shared" ca="1" si="20"/>
         <v>100</v>
       </c>
@@ -10622,7 +10619,7 @@
         <f t="shared" si="22"/>
         <v>437</v>
       </c>
-      <c r="D450" s="458">
+      <c r="D450" s="455">
         <f t="shared" ca="1" si="20"/>
         <v>83</v>
       </c>
@@ -10636,7 +10633,7 @@
         <f t="shared" si="22"/>
         <v>438</v>
       </c>
-      <c r="D451" s="459">
+      <c r="D451" s="456">
         <f t="shared" ca="1" si="20"/>
         <v>53</v>
       </c>
@@ -10650,7 +10647,7 @@
         <f t="shared" si="22"/>
         <v>439</v>
       </c>
-      <c r="D452" s="460">
+      <c r="D452" s="457">
         <f t="shared" ca="1" si="20"/>
         <v>90</v>
       </c>
@@ -10664,7 +10661,7 @@
         <f t="shared" si="22"/>
         <v>440</v>
       </c>
-      <c r="D453" s="461">
+      <c r="D453" s="458">
         <f t="shared" ca="1" si="20"/>
         <v>16</v>
       </c>
@@ -10678,7 +10675,7 @@
         <f t="shared" si="22"/>
         <v>441</v>
       </c>
-      <c r="D454" s="462">
+      <c r="D454" s="459">
         <f t="shared" ca="1" si="20"/>
         <v>79</v>
       </c>
@@ -10692,7 +10689,7 @@
         <f t="shared" si="22"/>
         <v>442</v>
       </c>
-      <c r="D455" s="463">
+      <c r="D455" s="460">
         <f t="shared" ca="1" si="20"/>
         <v>22</v>
       </c>
@@ -10706,7 +10703,7 @@
         <f t="shared" si="22"/>
         <v>443</v>
       </c>
-      <c r="D456" s="464">
+      <c r="D456" s="461">
         <f t="shared" ca="1" si="20"/>
         <v>87</v>
       </c>
@@ -10720,7 +10717,7 @@
         <f t="shared" si="22"/>
         <v>444</v>
       </c>
-      <c r="D457" s="465">
+      <c r="D457" s="462">
         <f t="shared" ca="1" si="20"/>
         <v>8</v>
       </c>
@@ -10734,7 +10731,7 @@
         <f t="shared" si="22"/>
         <v>445</v>
       </c>
-      <c r="D458" s="466">
+      <c r="D458" s="463">
         <f t="shared" ca="1" si="20"/>
         <v>83</v>
       </c>
@@ -10748,7 +10745,7 @@
         <f t="shared" si="22"/>
         <v>446</v>
       </c>
-      <c r="D459" s="467">
+      <c r="D459" s="464">
         <f t="shared" ca="1" si="20"/>
         <v>98</v>
       </c>
@@ -10762,7 +10759,7 @@
         <f t="shared" si="22"/>
         <v>447</v>
       </c>
-      <c r="D460" s="468">
+      <c r="D460" s="465">
         <f t="shared" ca="1" si="20"/>
         <v>13</v>
       </c>
@@ -10776,7 +10773,7 @@
         <f t="shared" si="22"/>
         <v>448</v>
       </c>
-      <c r="D461" s="469">
+      <c r="D461" s="466">
         <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
@@ -10790,7 +10787,7 @@
         <f t="shared" si="22"/>
         <v>449</v>
       </c>
-      <c r="D462" s="470">
+      <c r="D462" s="467">
         <f t="shared" ca="1" si="20"/>
         <v>8</v>
       </c>
@@ -10804,7 +10801,7 @@
         <f>+B462+1</f>
         <v>450</v>
       </c>
-      <c r="D463" s="471">
+      <c r="D463" s="468">
         <f t="shared" ref="D463:D493" ca="1" si="23">ROUND(RAND()*100,0)</f>
         <v>31</v>
       </c>
@@ -10818,7 +10815,7 @@
         <f>+B463+1</f>
         <v>451</v>
       </c>
-      <c r="D464" s="472">
+      <c r="D464" s="469">
         <f t="shared" ca="1" si="23"/>
         <v>23</v>
       </c>
@@ -10832,7 +10829,7 @@
         <f>+B464+1</f>
         <v>452</v>
       </c>
-      <c r="D465" s="473">
+      <c r="D465" s="470">
         <f t="shared" ca="1" si="23"/>
         <v>31</v>
       </c>
@@ -10846,7 +10843,7 @@
         <f t="shared" ref="B466:B487" si="24">+B465+1</f>
         <v>453</v>
       </c>
-      <c r="D466" s="474">
+      <c r="D466" s="471">
         <f t="shared" ca="1" si="23"/>
         <v>16</v>
       </c>
@@ -10860,7 +10857,7 @@
         <f t="shared" si="24"/>
         <v>454</v>
       </c>
-      <c r="D467" s="475">
+      <c r="D467" s="472">
         <f t="shared" ca="1" si="23"/>
         <v>54</v>
       </c>
@@ -10874,7 +10871,7 @@
         <f t="shared" si="24"/>
         <v>455</v>
       </c>
-      <c r="D468" s="476">
+      <c r="D468" s="473">
         <f t="shared" ca="1" si="23"/>
         <v>38</v>
       </c>
@@ -10888,7 +10885,7 @@
         <f t="shared" si="24"/>
         <v>456</v>
       </c>
-      <c r="D469" s="477">
+      <c r="D469" s="474">
         <f t="shared" ca="1" si="23"/>
         <v>29</v>
       </c>
@@ -10902,7 +10899,7 @@
         <f t="shared" si="24"/>
         <v>457</v>
       </c>
-      <c r="D470" s="478">
+      <c r="D470" s="475">
         <f t="shared" ca="1" si="23"/>
         <v>92</v>
       </c>
@@ -10916,7 +10913,7 @@
         <f t="shared" si="24"/>
         <v>458</v>
       </c>
-      <c r="D471" s="479">
+      <c r="D471" s="476">
         <f t="shared" ca="1" si="23"/>
         <v>49</v>
       </c>
@@ -10930,7 +10927,7 @@
         <f t="shared" si="24"/>
         <v>459</v>
       </c>
-      <c r="D472" s="480">
+      <c r="D472" s="477">
         <f t="shared" ca="1" si="23"/>
         <v>97</v>
       </c>
@@ -10944,7 +10941,7 @@
         <f t="shared" si="24"/>
         <v>460</v>
       </c>
-      <c r="D473" s="481">
+      <c r="D473" s="478">
         <f t="shared" ca="1" si="23"/>
         <v>35</v>
       </c>
@@ -10958,7 +10955,7 @@
         <f t="shared" si="24"/>
         <v>461</v>
       </c>
-      <c r="D474" s="482">
+      <c r="D474" s="479">
         <f t="shared" ca="1" si="23"/>
         <v>3</v>
       </c>
@@ -10972,7 +10969,7 @@
         <f t="shared" si="24"/>
         <v>462</v>
       </c>
-      <c r="D475" s="483">
+      <c r="D475" s="480">
         <f t="shared" ca="1" si="23"/>
         <v>97</v>
       </c>
@@ -10986,7 +10983,7 @@
         <f t="shared" si="24"/>
         <v>463</v>
       </c>
-      <c r="D476" s="484">
+      <c r="D476" s="481">
         <f t="shared" ca="1" si="23"/>
         <v>37</v>
       </c>
@@ -11000,7 +10997,7 @@
         <f t="shared" si="24"/>
         <v>464</v>
       </c>
-      <c r="D477" s="485">
+      <c r="D477" s="482">
         <f t="shared" ca="1" si="23"/>
         <v>60</v>
       </c>
@@ -11014,7 +11011,7 @@
         <f t="shared" si="24"/>
         <v>465</v>
       </c>
-      <c r="D478" s="486">
+      <c r="D478" s="483">
         <f t="shared" ca="1" si="23"/>
         <v>14</v>
       </c>
@@ -11028,7 +11025,7 @@
         <f t="shared" si="24"/>
         <v>466</v>
       </c>
-      <c r="D479" s="487">
+      <c r="D479" s="484">
         <f t="shared" ca="1" si="23"/>
         <v>88</v>
       </c>
@@ -11042,7 +11039,7 @@
         <f t="shared" si="24"/>
         <v>467</v>
       </c>
-      <c r="D480" s="488">
+      <c r="D480" s="485">
         <f t="shared" ca="1" si="23"/>
         <v>16</v>
       </c>
@@ -11056,7 +11053,7 @@
         <f t="shared" si="24"/>
         <v>468</v>
       </c>
-      <c r="D481" s="489">
+      <c r="D481" s="486">
         <f t="shared" ca="1" si="23"/>
         <v>78</v>
       </c>
@@ -11070,7 +11067,7 @@
         <f t="shared" si="24"/>
         <v>469</v>
       </c>
-      <c r="D482" s="490">
+      <c r="D482" s="487">
         <f t="shared" ca="1" si="23"/>
         <v>91</v>
       </c>
@@ -11084,7 +11081,7 @@
         <f t="shared" si="24"/>
         <v>470</v>
       </c>
-      <c r="D483" s="491">
+      <c r="D483" s="488">
         <f t="shared" ca="1" si="23"/>
         <v>37</v>
       </c>
@@ -11098,7 +11095,7 @@
         <f t="shared" si="24"/>
         <v>471</v>
       </c>
-      <c r="D484" s="492">
+      <c r="D484" s="489">
         <f t="shared" ca="1" si="23"/>
         <v>63</v>
       </c>
@@ -11112,7 +11109,7 @@
         <f t="shared" si="24"/>
         <v>472</v>
       </c>
-      <c r="D485" s="493">
+      <c r="D485" s="490">
         <f t="shared" ca="1" si="23"/>
         <v>13</v>
       </c>
@@ -11126,7 +11123,7 @@
         <f t="shared" si="24"/>
         <v>473</v>
       </c>
-      <c r="D486" s="494">
+      <c r="D486" s="491">
         <f t="shared" ca="1" si="23"/>
         <v>98</v>
       </c>
@@ -11140,7 +11137,7 @@
         <f t="shared" si="24"/>
         <v>474</v>
       </c>
-      <c r="D487" s="495">
+      <c r="D487" s="492">
         <f t="shared" ca="1" si="23"/>
         <v>59</v>
       </c>
@@ -11154,7 +11151,7 @@
         <f t="shared" ref="B488:B493" si="25">+B487+1</f>
         <v>475</v>
       </c>
-      <c r="D488" s="496">
+      <c r="D488" s="493">
         <f t="shared" ca="1" si="23"/>
         <v>80</v>
       </c>
@@ -11168,7 +11165,7 @@
         <f t="shared" si="25"/>
         <v>476</v>
       </c>
-      <c r="D489" s="497">
+      <c r="D489" s="494">
         <f t="shared" ca="1" si="23"/>
         <v>28</v>
       </c>
@@ -11182,7 +11179,7 @@
         <f t="shared" si="25"/>
         <v>477</v>
       </c>
-      <c r="D490" s="498">
+      <c r="D490" s="495">
         <f t="shared" ca="1" si="23"/>
         <v>61</v>
       </c>
@@ -11196,7 +11193,7 @@
         <f t="shared" si="25"/>
         <v>478</v>
       </c>
-      <c r="D491" s="499">
+      <c r="D491" s="496">
         <f t="shared" ca="1" si="23"/>
         <v>89</v>
       </c>
@@ -11210,7 +11207,7 @@
         <f t="shared" si="25"/>
         <v>479</v>
       </c>
-      <c r="D492" s="500">
+      <c r="D492" s="497">
         <f t="shared" ca="1" si="23"/>
         <v>23</v>
       </c>
@@ -11224,7 +11221,7 @@
         <f t="shared" si="25"/>
         <v>480</v>
       </c>
-      <c r="D493" s="501">
+      <c r="D493" s="498">
         <f t="shared" ca="1" si="23"/>
         <v>11</v>
       </c>

--- a/assignment_after.xlsx
+++ b/assignment_after.xlsx
@@ -186,7 +186,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="499">
+  <cellXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +225,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -3184,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="28">
+      <c r="D20" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <f t="shared" ca="1" si="1"/>
         <v>88</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="30">
+      <c r="D22" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <f t="shared" ca="1" si="1"/>
         <v>93</v>
       </c>
@@ -3256,7 +3258,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="35">
+      <c r="D27" s="34">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <f t="shared" ca="1" si="1"/>
         <v>95</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="39">
+      <c r="D31" s="38">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="40">
+      <c r="D32" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="41">
+      <c r="D33" s="40">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="43">
+      <c r="D35" s="42">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="44">
+      <c r="D36" s="43">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
@@ -3490,7 +3492,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="45">
+      <c r="D37" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="46">
+      <c r="D38" s="45">
         <f t="shared" ca="1" si="1"/>
         <v>81</v>
       </c>
@@ -3526,7 +3528,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="47">
+      <c r="D39" s="46">
         <f t="shared" ca="1" si="1"/>
         <v>77</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="48">
+      <c r="D40" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>76</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="49">
+      <c r="D41" s="48">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="50">
+      <c r="D42" s="49">
         <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="51">
+      <c r="D43" s="50">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="52">
+      <c r="D44" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="53">
+      <c r="D45" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="54">
+      <c r="D46" s="53">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
@@ -3670,7 +3672,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="55">
+      <c r="D47" s="54">
         <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="56">
+      <c r="D48" s="55">
         <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="57">
+      <c r="D49" s="56">
         <f t="shared" ca="1" si="1"/>
         <v>81</v>
       </c>
@@ -3724,7 +3726,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="58">
+      <c r="D50" s="57">
         <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>38</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="59">
+      <c r="D51" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="60">
+      <c r="D52" s="59">
         <f t="shared" ca="1" si="1"/>
         <v>95</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="61">
+      <c r="D53" s="60">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>41</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="62">
+      <c r="D54" s="61">
         <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="63">
+      <c r="D55" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="10">
+      <c r="D56" s="63">
         <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
@@ -3850,7 +3852,7 @@
         <v>44</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="10">
+      <c r="D57" s="64">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="64">
+      <c r="D58" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>96</v>
       </c>
@@ -3886,7 +3888,7 @@
         <v>46</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="65">
+      <c r="D59" s="66">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="66">
+      <c r="D60" s="67">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
@@ -3922,7 +3924,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="67">
+      <c r="D61" s="68">
         <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="68">
+      <c r="D62" s="69">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="69">
+      <c r="D63" s="70">
         <f t="shared" ca="1" si="1"/>
         <v>98</v>
       </c>
@@ -3976,7 +3978,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="70">
+      <c r="D64" s="71">
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="71">
+      <c r="D65" s="72">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="72">
+      <c r="D66" s="73">
         <f t="shared" ca="1" si="1"/>
         <v>98</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>54</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="73">
+      <c r="D67" s="74">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="74">
+      <c r="D68" s="75">
         <f t="shared" ca="1" si="1"/>
         <v>86</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="75">
+      <c r="D69" s="76">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>57</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="76">
+      <c r="D70" s="77">
         <f t="shared" ca="1" si="1"/>
         <v>74</v>
       </c>
@@ -4102,7 +4104,7 @@
         <v>58</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="77">
+      <c r="D71" s="78">
         <f t="shared" ca="1" si="1"/>
         <v>69</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>59</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="78">
+      <c r="D72" s="79">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="79">
+      <c r="D73" s="80">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
@@ -4156,7 +4158,7 @@
         <v>61</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="80">
+      <c r="D74" s="81">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>62</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="81">
+      <c r="D75" s="82">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>63</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="82">
+      <c r="D76" s="83">
         <f t="shared" ca="1" si="1"/>
         <v>90</v>
       </c>
@@ -4210,7 +4212,7 @@
         <v>64</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="83">
+      <c r="D77" s="84">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>65</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="84">
+      <c r="D78" s="85">
         <f t="shared" ca="1" si="1"/>
         <v>88</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>66</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="85">
+      <c r="D79" s="86">
         <f t="shared" ref="D79:D142" ca="1" si="4">ROUND(RAND()*100,0)</f>
         <v>21</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="86">
+      <c r="D80" s="87">
         <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="87">
+      <c r="D81" s="88">
         <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
@@ -4300,7 +4302,7 @@
         <v>69</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="88">
+      <c r="D82" s="89">
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>70</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="89">
+      <c r="D83" s="90">
         <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>71</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="90">
+      <c r="D84" s="91">
         <f t="shared" ca="1" si="4"/>
         <v>89</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="91">
+      <c r="D85" s="92">
         <f t="shared" ca="1" si="4"/>
         <v>99</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="92">
+      <c r="D86" s="93">
         <f t="shared" ca="1" si="4"/>
         <v>84</v>
       </c>
@@ -4390,7 +4392,7 @@
         <v>74</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="10">
+      <c r="D87" s="94">
         <f t="shared" ca="1" si="4"/>
         <v>15</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>75</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="93">
+      <c r="D88" s="95">
         <f t="shared" ca="1" si="4"/>
         <v>74</v>
       </c>
@@ -4426,7 +4428,7 @@
         <v>76</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="94">
+      <c r="D89" s="96">
         <f t="shared" ca="1" si="4"/>
         <v>84</v>
       </c>
@@ -4444,7 +4446,7 @@
         <v>77</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="95">
+      <c r="D90" s="97">
         <f t="shared" ca="1" si="4"/>
         <v>85</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>78</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="96">
+      <c r="D91" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>92</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>79</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="97">
+      <c r="D92" s="99">
         <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="98">
+      <c r="D93" s="100">
         <f t="shared" ca="1" si="4"/>
         <v>82</v>
       </c>
@@ -4516,7 +4518,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="99">
+      <c r="D94" s="101">
         <f t="shared" ca="1" si="4"/>
         <v>96</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="100">
+      <c r="D95" s="102">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>83</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="101">
+      <c r="D96" s="103">
         <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="102">
+      <c r="D97" s="104">
         <f t="shared" ca="1" si="4"/>
         <v>69</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>85</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="103">
+      <c r="D98" s="105">
         <f t="shared" ca="1" si="4"/>
         <v>21</v>
       </c>
@@ -4606,7 +4608,7 @@
         <v>86</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="104">
+      <c r="D99" s="106">
         <f t="shared" ca="1" si="4"/>
         <v>96</v>
       </c>
@@ -4624,7 +4626,7 @@
         <v>87</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="105">
+      <c r="D100" s="107">
         <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>88</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="106">
+      <c r="D101" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>29</v>
       </c>
@@ -4660,7 +4662,7 @@
         <v>89</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="107">
+      <c r="D102" s="109">
         <f t="shared" ca="1" si="4"/>
         <v>97</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>90</v>
       </c>
       <c r="C103" s="5"/>
-      <c r="D103" s="108">
+      <c r="D103" s="110">
         <f t="shared" ca="1" si="4"/>
         <v>16</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>91</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="109">
+      <c r="D104" s="111">
         <f t="shared" ca="1" si="4"/>
         <v>94</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>92</v>
       </c>
       <c r="C105" s="5"/>
-      <c r="D105" s="110">
+      <c r="D105" s="112">
         <f t="shared" ca="1" si="4"/>
         <v>76</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>93</v>
       </c>
       <c r="C106" s="5"/>
-      <c r="D106" s="111">
+      <c r="D106" s="113">
         <f t="shared" ca="1" si="4"/>
         <v>28</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>94</v>
       </c>
       <c r="C107" s="5"/>
-      <c r="D107" s="112">
+      <c r="D107" s="114">
         <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>95</v>
       </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="113">
+      <c r="D108" s="115">
         <f t="shared" ca="1" si="4"/>
         <v>82</v>
       </c>
@@ -4786,7 +4788,7 @@
         <v>96</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="114">
+      <c r="D109" s="116">
         <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
@@ -4804,7 +4806,7 @@
         <v>97</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="115">
+      <c r="D110" s="117">
         <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="116">
+      <c r="D111" s="118">
         <f t="shared" ca="1" si="4"/>
         <v>90</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>99</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="117">
+      <c r="D112" s="119">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
@@ -4858,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="118">
+      <c r="D113" s="120">
         <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>101</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="119">
+      <c r="D114" s="121">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>102</v>
       </c>
       <c r="C115" s="5"/>
-      <c r="D115" s="120">
+      <c r="D115" s="122">
         <f t="shared" ca="1" si="4"/>
         <v>20</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>103</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="121">
+      <c r="D116" s="123">
         <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>104</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="122">
+      <c r="D117" s="124">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
@@ -4948,7 +4950,7 @@
         <v>105</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="123">
+      <c r="D118" s="125">
         <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>106</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="124">
+      <c r="D119" s="126">
         <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>107</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="125">
+      <c r="D120" s="127">
         <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>108</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="126">
+      <c r="D121" s="128">
         <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
@@ -5020,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="127">
+      <c r="D122" s="129">
         <f t="shared" ca="1" si="4"/>
         <v>95</v>
       </c>
@@ -5038,7 +5040,7 @@
         <v>110</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="128">
+      <c r="D123" s="130">
         <f t="shared" ca="1" si="4"/>
         <v>26</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>111</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="129">
+      <c r="D124" s="131">
         <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>112</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="130">
+      <c r="D125" s="132">
         <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>113</v>
       </c>
       <c r="C126" s="5"/>
-      <c r="D126" s="131">
+      <c r="D126" s="133">
         <f t="shared" ca="1" si="4"/>
         <v>85</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>114</v>
       </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="132">
+      <c r="D127" s="134">
         <f t="shared" ca="1" si="4"/>
         <v>16</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>115</v>
       </c>
       <c r="C128" s="5"/>
-      <c r="D128" s="133">
+      <c r="D128" s="135">
         <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="134">
+      <c r="D129" s="136">
         <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="135">
+      <c r="D130" s="137">
         <f t="shared" ca="1" si="4"/>
         <v>85</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>118</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="136">
+      <c r="D131" s="138">
         <f t="shared" ca="1" si="4"/>
         <v>84</v>
       </c>
@@ -5200,7 +5202,7 @@
         <v>119</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="137">
+      <c r="D132" s="139">
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>120</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="138">
+      <c r="D133" s="140">
         <f t="shared" ca="1" si="4"/>
         <v>97</v>
       </c>
@@ -5236,7 +5238,7 @@
         <v>121</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="139">
+      <c r="D134" s="141">
         <f t="shared" ca="1" si="4"/>
         <v>18</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>122</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="140">
+      <c r="D135" s="142">
         <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>123</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="141">
+      <c r="D136" s="143">
         <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>124</v>
       </c>
       <c r="C137" s="5"/>
-      <c r="D137" s="142">
+      <c r="D137" s="144">
         <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
@@ -5308,7 +5310,7 @@
         <v>125</v>
       </c>
       <c r="C138" s="5"/>
-      <c r="D138" s="143">
+      <c r="D138" s="145">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>126</v>
       </c>
       <c r="C139" s="5"/>
-      <c r="D139" s="144">
+      <c r="D139" s="146">
         <f t="shared" ca="1" si="4"/>
         <v>29</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>127</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="145">
+      <c r="D140" s="147">
         <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>128</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="146">
+      <c r="D141" s="148">
         <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="147">
+      <c r="D142" s="149">
         <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>130</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="148">
+      <c r="D143" s="150">
         <f t="shared" ref="D143:D206" ca="1" si="7">ROUND(RAND()*100,0)</f>
         <v>45</v>
       </c>
@@ -5416,7 +5418,7 @@
         <v>131</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="149">
+      <c r="D144" s="151">
         <f t="shared" ca="1" si="7"/>
         <v>61</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>132</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="150">
+      <c r="D145" s="152">
         <f t="shared" ca="1" si="7"/>
         <v>31</v>
       </c>
@@ -5452,7 +5454,7 @@
         <v>133</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="151">
+      <c r="D146" s="153">
         <f t="shared" ca="1" si="7"/>
         <v>61</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>134</v>
       </c>
       <c r="C147" s="5"/>
-      <c r="D147" s="152">
+      <c r="D147" s="154">
         <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>135</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="153">
+      <c r="D148" s="155">
         <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
@@ -5506,7 +5508,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="154">
+      <c r="D149" s="156">
         <f t="shared" ca="1" si="7"/>
         <v>46</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>137</v>
       </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="155">
+      <c r="D150" s="157">
         <f t="shared" ca="1" si="7"/>
         <v>8</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>138</v>
       </c>
       <c r="C151" s="5"/>
-      <c r="D151" s="156">
+      <c r="D151" s="158">
         <f t="shared" ca="1" si="7"/>
         <v>27</v>
       </c>
@@ -5560,7 +5562,7 @@
         <v>139</v>
       </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="157">
+      <c r="D152" s="159">
         <f t="shared" ca="1" si="7"/>
         <v>28</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>140</v>
       </c>
       <c r="C153" s="5"/>
-      <c r="D153" s="158">
+      <c r="D153" s="160">
         <f t="shared" ca="1" si="7"/>
         <v>55</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>141</v>
       </c>
       <c r="C154" s="5"/>
-      <c r="D154" s="159">
+      <c r="D154" s="161">
         <f t="shared" ca="1" si="7"/>
         <v>55</v>
       </c>
@@ -5614,7 +5616,7 @@
         <v>142</v>
       </c>
       <c r="C155" s="5"/>
-      <c r="D155" s="160">
+      <c r="D155" s="162">
         <f t="shared" ca="1" si="7"/>
         <v>32</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>143</v>
       </c>
       <c r="C156" s="5"/>
-      <c r="D156" s="161">
+      <c r="D156" s="163">
         <f t="shared" ca="1" si="7"/>
         <v>25</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>144</v>
       </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="162">
+      <c r="D157" s="164">
         <f t="shared" ca="1" si="7"/>
         <v>67</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>145</v>
       </c>
       <c r="C158" s="5"/>
-      <c r="D158" s="163">
+      <c r="D158" s="165">
         <f t="shared" ca="1" si="7"/>
         <v>22</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>146</v>
       </c>
       <c r="C159" s="5"/>
-      <c r="D159" s="164">
+      <c r="D159" s="166">
         <f t="shared" ca="1" si="7"/>
         <v>74</v>
       </c>
@@ -5704,7 +5706,7 @@
         <v>147</v>
       </c>
       <c r="C160" s="5"/>
-      <c r="D160" s="165">
+      <c r="D160" s="167">
         <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>148</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="166">
+      <c r="D161" s="168">
         <f t="shared" ca="1" si="7"/>
         <v>41</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>149</v>
       </c>
       <c r="C162" s="5"/>
-      <c r="D162" s="167">
+      <c r="D162" s="169">
         <f t="shared" ca="1" si="7"/>
         <v>77</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>150</v>
       </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="168">
+      <c r="D163" s="170">
         <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
@@ -5776,7 +5778,7 @@
         <v>151</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="169">
+      <c r="D164" s="171">
         <f t="shared" ca="1" si="7"/>
         <v>83</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>152</v>
       </c>
       <c r="C165" s="5"/>
-      <c r="D165" s="170">
+      <c r="D165" s="172">
         <f t="shared" ca="1" si="7"/>
         <v>54</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>153</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="171">
+      <c r="D166" s="173">
         <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>154</v>
       </c>
       <c r="C167" s="5"/>
-      <c r="D167" s="172">
+      <c r="D167" s="174">
         <f t="shared" ca="1" si="7"/>
         <v>58</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>155</v>
       </c>
       <c r="C168" s="5"/>
-      <c r="D168" s="173">
+      <c r="D168" s="175">
         <f t="shared" ca="1" si="7"/>
         <v>80</v>
       </c>
@@ -5866,7 +5868,7 @@
         <v>156</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="174">
+      <c r="D169" s="176">
         <f t="shared" ca="1" si="7"/>
         <v>59</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>157</v>
       </c>
       <c r="C170" s="5"/>
-      <c r="D170" s="175">
+      <c r="D170" s="177">
         <f t="shared" ca="1" si="7"/>
         <v>11</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>158</v>
       </c>
       <c r="C171" s="5"/>
-      <c r="D171" s="176">
+      <c r="D171" s="178">
         <f t="shared" ca="1" si="7"/>
         <v>15</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>159</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="177">
+      <c r="D172" s="179">
         <f t="shared" ca="1" si="7"/>
         <v>23</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>160</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="178">
+      <c r="D173" s="180">
         <f t="shared" ca="1" si="7"/>
         <v>13</v>
       </c>
@@ -5956,7 +5958,7 @@
         <v>161</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="179">
+      <c r="D174" s="181">
         <f t="shared" ca="1" si="7"/>
         <v>8</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>162</v>
       </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="180">
+      <c r="D175" s="182">
         <f t="shared" ca="1" si="7"/>
         <v>62</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>163</v>
       </c>
       <c r="C176" s="5"/>
-      <c r="D176" s="181">
+      <c r="D176" s="183">
         <f t="shared" ca="1" si="7"/>
         <v>66</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>164</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="182">
+      <c r="D177" s="184">
         <f t="shared" ca="1" si="7"/>
         <v>31</v>
       </c>
@@ -6028,7 +6030,7 @@
         <v>165</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="183">
+      <c r="D178" s="185">
         <f t="shared" ca="1" si="7"/>
         <v>28</v>
       </c>
@@ -6046,7 +6048,7 @@
         <v>166</v>
       </c>
       <c r="C179" s="5"/>
-      <c r="D179" s="184">
+      <c r="D179" s="186">
         <f t="shared" ca="1" si="7"/>
         <v>37</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>167</v>
       </c>
       <c r="C180" s="5"/>
-      <c r="D180" s="185">
+      <c r="D180" s="187">
         <f t="shared" ca="1" si="7"/>
         <v>92</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>168</v>
       </c>
       <c r="C181" s="5"/>
-      <c r="D181" s="186">
+      <c r="D181" s="188">
         <f t="shared" ca="1" si="7"/>
         <v>75</v>
       </c>
@@ -6100,7 +6102,7 @@
         <v>169</v>
       </c>
       <c r="C182" s="5"/>
-      <c r="D182" s="187">
+      <c r="D182" s="189">
         <f t="shared" ca="1" si="7"/>
         <v>94</v>
       </c>
@@ -6118,7 +6120,7 @@
         <v>170</v>
       </c>
       <c r="C183" s="5"/>
-      <c r="D183" s="188">
+      <c r="D183" s="190">
         <f t="shared" ca="1" si="7"/>
         <v>65</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>171</v>
       </c>
       <c r="C184" s="5"/>
-      <c r="D184" s="189">
+      <c r="D184" s="191">
         <f t="shared" ca="1" si="7"/>
         <v>19</v>
       </c>
@@ -6154,7 +6156,7 @@
         <v>172</v>
       </c>
       <c r="C185" s="5"/>
-      <c r="D185" s="190">
+      <c r="D185" s="192">
         <f t="shared" ca="1" si="7"/>
         <v>10</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>173</v>
       </c>
       <c r="C186" s="5"/>
-      <c r="D186" s="191">
+      <c r="D186" s="193">
         <f t="shared" ca="1" si="7"/>
         <v>56</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>174</v>
       </c>
       <c r="C187" s="5"/>
-      <c r="D187" s="192">
+      <c r="D187" s="194">
         <f t="shared" ca="1" si="7"/>
         <v>59</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>175</v>
       </c>
       <c r="C188" s="5"/>
-      <c r="D188" s="193">
+      <c r="D188" s="195">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>176</v>
       </c>
       <c r="C189" s="5"/>
-      <c r="D189" s="194">
+      <c r="D189" s="196">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -6244,7 +6246,7 @@
         <v>177</v>
       </c>
       <c r="C190" s="5"/>
-      <c r="D190" s="195">
+      <c r="D190" s="197">
         <f t="shared" ca="1" si="7"/>
         <v>63</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>178</v>
       </c>
       <c r="C191" s="5"/>
-      <c r="D191" s="196">
+      <c r="D191" s="198">
         <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>179</v>
       </c>
       <c r="C192" s="5"/>
-      <c r="D192" s="197">
+      <c r="D192" s="199">
         <f t="shared" ca="1" si="7"/>
         <v>30</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>180</v>
       </c>
       <c r="C193" s="5"/>
-      <c r="D193" s="198">
+      <c r="D193" s="200">
         <f t="shared" ca="1" si="7"/>
         <v>27</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>181</v>
       </c>
       <c r="C194" s="5"/>
-      <c r="D194" s="199">
+      <c r="D194" s="201">
         <f t="shared" ca="1" si="7"/>
         <v>80</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>182</v>
       </c>
       <c r="C195" s="5"/>
-      <c r="D195" s="200">
+      <c r="D195" s="202">
         <f t="shared" ca="1" si="7"/>
         <v>41</v>
       </c>
@@ -6352,7 +6354,7 @@
         <v>183</v>
       </c>
       <c r="C196" s="5"/>
-      <c r="D196" s="201">
+      <c r="D196" s="203">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>184</v>
       </c>
       <c r="C197" s="5"/>
-      <c r="D197" s="202">
+      <c r="D197" s="204">
         <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>185</v>
       </c>
       <c r="C198" s="5"/>
-      <c r="D198" s="203">
+      <c r="D198" s="205">
         <f t="shared" ca="1" si="7"/>
         <v>25</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>186</v>
       </c>
       <c r="C199" s="5"/>
-      <c r="D199" s="204">
+      <c r="D199" s="206">
         <f t="shared" ca="1" si="7"/>
         <v>79</v>
       </c>
@@ -6424,7 +6426,7 @@
         <v>187</v>
       </c>
       <c r="C200" s="5"/>
-      <c r="D200" s="205">
+      <c r="D200" s="207">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -6442,7 +6444,7 @@
         <v>188</v>
       </c>
       <c r="C201" s="5"/>
-      <c r="D201" s="206">
+      <c r="D201" s="208">
         <f t="shared" ca="1" si="7"/>
         <v>58</v>
       </c>
@@ -6460,7 +6462,7 @@
         <v>189</v>
       </c>
       <c r="C202" s="5"/>
-      <c r="D202" s="207">
+      <c r="D202" s="209">
         <f t="shared" ca="1" si="7"/>
         <v>62</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>190</v>
       </c>
       <c r="C203" s="5"/>
-      <c r="D203" s="208">
+      <c r="D203" s="210">
         <f t="shared" ca="1" si="7"/>
         <v>15</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>191</v>
       </c>
       <c r="C204" s="5"/>
-      <c r="D204" s="209">
+      <c r="D204" s="211">
         <f t="shared" ca="1" si="7"/>
         <v>99</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>192</v>
       </c>
       <c r="C205" s="5"/>
-      <c r="D205" s="210">
+      <c r="D205" s="212">
         <f t="shared" ca="1" si="7"/>
         <v>54</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>193</v>
       </c>
       <c r="C206" s="5"/>
-      <c r="D206" s="211">
+      <c r="D206" s="213">
         <f t="shared" ca="1" si="7"/>
         <v>96</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>194</v>
       </c>
       <c r="C207" s="5"/>
-      <c r="D207" s="212">
+      <c r="D207" s="214">
         <f t="shared" ref="D207:D270" ca="1" si="10">ROUND(RAND()*100,0)</f>
         <v>7</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>195</v>
       </c>
       <c r="C208" s="5"/>
-      <c r="D208" s="213">
+      <c r="D208" s="215">
         <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
@@ -6586,7 +6588,7 @@
         <v>196</v>
       </c>
       <c r="C209" s="5"/>
-      <c r="D209" s="214">
+      <c r="D209" s="216">
         <f t="shared" ca="1" si="10"/>
         <v>38</v>
       </c>
@@ -6604,7 +6606,7 @@
         <v>197</v>
       </c>
       <c r="C210" s="5"/>
-      <c r="D210" s="215">
+      <c r="D210" s="217">
         <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>198</v>
       </c>
       <c r="C211" s="5"/>
-      <c r="D211" s="216">
+      <c r="D211" s="218">
         <f t="shared" ca="1" si="10"/>
         <v>95</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>199</v>
       </c>
       <c r="C212" s="5"/>
-      <c r="D212" s="217">
+      <c r="D212" s="219">
         <f t="shared" ca="1" si="10"/>
         <v>75</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>200</v>
       </c>
       <c r="C213" s="5"/>
-      <c r="D213" s="218">
+      <c r="D213" s="220">
         <f t="shared" ca="1" si="10"/>
         <v>37</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>201</v>
       </c>
       <c r="C214" s="5"/>
-      <c r="D214" s="219">
+      <c r="D214" s="221">
         <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>202</v>
       </c>
       <c r="C215" s="5"/>
-      <c r="D215" s="220">
+      <c r="D215" s="222">
         <f t="shared" ca="1" si="10"/>
         <v>50</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>203</v>
       </c>
       <c r="C216" s="5"/>
-      <c r="D216" s="221">
+      <c r="D216" s="223">
         <f t="shared" ca="1" si="10"/>
         <v>51</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>204</v>
       </c>
       <c r="C217" s="5"/>
-      <c r="D217" s="222">
+      <c r="D217" s="224">
         <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>205</v>
       </c>
       <c r="C218" s="5"/>
-      <c r="D218" s="223">
+      <c r="D218" s="225">
         <f t="shared" ca="1" si="10"/>
         <v>71</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>206</v>
       </c>
       <c r="C219" s="5"/>
-      <c r="D219" s="224">
+      <c r="D219" s="226">
         <f t="shared" ca="1" si="10"/>
         <v>98</v>
       </c>
@@ -6784,7 +6786,7 @@
         <v>207</v>
       </c>
       <c r="C220" s="5"/>
-      <c r="D220" s="225">
+      <c r="D220" s="227">
         <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
@@ -6802,7 +6804,7 @@
         <v>208</v>
       </c>
       <c r="C221" s="5"/>
-      <c r="D221" s="226">
+      <c r="D221" s="228">
         <f t="shared" ca="1" si="10"/>
         <v>47</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>209</v>
       </c>
       <c r="C222" s="5"/>
-      <c r="D222" s="227">
+      <c r="D222" s="229">
         <f t="shared" ca="1" si="10"/>
         <v>15</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>210</v>
       </c>
       <c r="C223" s="5"/>
-      <c r="D223" s="228">
+      <c r="D223" s="230">
         <f t="shared" ca="1" si="10"/>
         <v>99</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>211</v>
       </c>
       <c r="C224" s="5"/>
-      <c r="D224" s="229">
+      <c r="D224" s="231">
         <f t="shared" ca="1" si="10"/>
         <v>74</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>212</v>
       </c>
       <c r="C225" s="5"/>
-      <c r="D225" s="230">
+      <c r="D225" s="232">
         <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>213</v>
       </c>
       <c r="C226" s="5"/>
-      <c r="D226" s="231">
+      <c r="D226" s="233">
         <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>214</v>
       </c>
       <c r="C227" s="5"/>
-      <c r="D227" s="232">
+      <c r="D227" s="234">
         <f t="shared" ca="1" si="10"/>
         <v>57</v>
       </c>
@@ -6928,7 +6930,7 @@
         <v>215</v>
       </c>
       <c r="C228" s="5"/>
-      <c r="D228" s="233">
+      <c r="D228" s="235">
         <f t="shared" ca="1" si="10"/>
         <v>79</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>216</v>
       </c>
       <c r="C229" s="5"/>
-      <c r="D229" s="234">
+      <c r="D229" s="236">
         <f t="shared" ca="1" si="10"/>
         <v>51</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>217</v>
       </c>
       <c r="C230" s="5"/>
-      <c r="D230" s="235">
+      <c r="D230" s="237">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>218</v>
       </c>
       <c r="C231" s="5"/>
-      <c r="D231" s="236">
+      <c r="D231" s="238">
         <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>219</v>
       </c>
       <c r="C232" s="5"/>
-      <c r="D232" s="237">
+      <c r="D232" s="239">
         <f t="shared" ca="1" si="10"/>
         <v>40</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>220</v>
       </c>
       <c r="C233" s="5"/>
-      <c r="D233" s="238">
+      <c r="D233" s="240">
         <f t="shared" ca="1" si="10"/>
         <v>31</v>
       </c>
@@ -7036,7 +7038,7 @@
         <v>221</v>
       </c>
       <c r="C234" s="5"/>
-      <c r="D234" s="239">
+      <c r="D234" s="241">
         <f t="shared" ca="1" si="10"/>
         <v>62</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>222</v>
       </c>
       <c r="C235" s="5"/>
-      <c r="D235" s="240">
+      <c r="D235" s="242">
         <f t="shared" ca="1" si="10"/>
         <v>68</v>
       </c>
@@ -7072,7 +7074,7 @@
         <v>223</v>
       </c>
       <c r="C236" s="5"/>
-      <c r="D236" s="241">
+      <c r="D236" s="243">
         <f t="shared" ca="1" si="10"/>
         <v>86</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>224</v>
       </c>
       <c r="C237" s="5"/>
-      <c r="D237" s="242">
+      <c r="D237" s="244">
         <f t="shared" ca="1" si="10"/>
         <v>61</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>225</v>
       </c>
       <c r="C238" s="5"/>
-      <c r="D238" s="243">
+      <c r="D238" s="245">
         <f t="shared" ca="1" si="10"/>
         <v>16</v>
       </c>
@@ -7126,7 +7128,7 @@
         <v>226</v>
       </c>
       <c r="C239" s="5"/>
-      <c r="D239" s="244">
+      <c r="D239" s="246">
         <f t="shared" ca="1" si="10"/>
         <v>15</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>227</v>
       </c>
       <c r="C240" s="5"/>
-      <c r="D240" s="245">
+      <c r="D240" s="247">
         <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>228</v>
       </c>
       <c r="C241" s="5"/>
-      <c r="D241" s="246">
+      <c r="D241" s="248">
         <f t="shared" ca="1" si="10"/>
         <v>77</v>
       </c>
@@ -7180,7 +7182,7 @@
         <v>229</v>
       </c>
       <c r="C242" s="5"/>
-      <c r="D242" s="247">
+      <c r="D242" s="249">
         <f t="shared" ca="1" si="10"/>
         <v>82</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>230</v>
       </c>
       <c r="C243" s="5"/>
-      <c r="D243" s="248">
+      <c r="D243" s="250">
         <f t="shared" ca="1" si="10"/>
         <v>4</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>231</v>
       </c>
       <c r="C244" s="5"/>
-      <c r="D244" s="249">
+      <c r="D244" s="251">
         <f t="shared" ca="1" si="10"/>
         <v>72</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>232</v>
       </c>
       <c r="C245" s="5"/>
-      <c r="D245" s="250">
+      <c r="D245" s="252">
         <f t="shared" ca="1" si="10"/>
         <v>55</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>233</v>
       </c>
       <c r="C246" s="5"/>
-      <c r="D246" s="251">
+      <c r="D246" s="253">
         <f t="shared" ca="1" si="10"/>
         <v>42</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>234</v>
       </c>
       <c r="C247" s="5"/>
-      <c r="D247" s="252">
+      <c r="D247" s="254">
         <f t="shared" ca="1" si="10"/>
         <v>68</v>
       </c>
@@ -7288,7 +7290,7 @@
         <v>235</v>
       </c>
       <c r="C248" s="5"/>
-      <c r="D248" s="253">
+      <c r="D248" s="255">
         <f t="shared" ca="1" si="10"/>
         <v>53</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>236</v>
       </c>
       <c r="C249" s="5"/>
-      <c r="D249" s="254">
+      <c r="D249" s="256">
         <f t="shared" ca="1" si="10"/>
         <v>35</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>237</v>
       </c>
       <c r="C250" s="5"/>
-      <c r="D250" s="255">
+      <c r="D250" s="257">
         <f t="shared" ca="1" si="10"/>
         <v>64</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>238</v>
       </c>
       <c r="C251" s="5"/>
-      <c r="D251" s="256">
+      <c r="D251" s="258">
         <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>239</v>
       </c>
       <c r="C252" s="5"/>
-      <c r="D252" s="257">
+      <c r="D252" s="259">
         <f t="shared" ca="1" si="10"/>
         <v>84</v>
       </c>
@@ -7378,7 +7380,7 @@
         <v>240</v>
       </c>
       <c r="C253" s="5"/>
-      <c r="D253" s="258">
+      <c r="D253" s="260">
         <f t="shared" ca="1" si="10"/>
         <v>14</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>241</v>
       </c>
       <c r="C254" s="5"/>
-      <c r="D254" s="259">
+      <c r="D254" s="261">
         <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
@@ -7414,7 +7416,7 @@
         <v>242</v>
       </c>
       <c r="C255" s="5"/>
-      <c r="D255" s="260">
+      <c r="D255" s="262">
         <f t="shared" ca="1" si="10"/>
         <v>85</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>243</v>
       </c>
       <c r="C256" s="5"/>
-      <c r="D256" s="261">
+      <c r="D256" s="263">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>244</v>
       </c>
       <c r="C257" s="5"/>
-      <c r="D257" s="262">
+      <c r="D257" s="264">
         <f t="shared" ca="1" si="10"/>
         <v>80</v>
       </c>
@@ -7468,7 +7470,7 @@
         <v>245</v>
       </c>
       <c r="C258" s="5"/>
-      <c r="D258" s="263">
+      <c r="D258" s="265">
         <f t="shared" ca="1" si="10"/>
         <v>89</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>246</v>
       </c>
       <c r="C259" s="5"/>
-      <c r="D259" s="264">
+      <c r="D259" s="266">
         <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
@@ -7504,7 +7506,7 @@
         <v>247</v>
       </c>
       <c r="C260" s="5"/>
-      <c r="D260" s="265">
+      <c r="D260" s="267">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7522,7 +7524,7 @@
         <v>248</v>
       </c>
       <c r="C261" s="5"/>
-      <c r="D261" s="266">
+      <c r="D261" s="268">
         <f t="shared" ca="1" si="10"/>
         <v>11</v>
       </c>
@@ -7540,7 +7542,7 @@
         <v>249</v>
       </c>
       <c r="C262" s="5"/>
-      <c r="D262" s="267">
+      <c r="D262" s="269">
         <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>250</v>
       </c>
       <c r="C263" s="5"/>
-      <c r="D263" s="268">
+      <c r="D263" s="270">
         <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>251</v>
       </c>
       <c r="C264" s="5"/>
-      <c r="D264" s="269">
+      <c r="D264" s="271">
         <f t="shared" ca="1" si="10"/>
         <v>12</v>
       </c>
@@ -7594,7 +7596,7 @@
         <v>252</v>
       </c>
       <c r="C265" s="5"/>
-      <c r="D265" s="270">
+      <c r="D265" s="272">
         <f t="shared" ca="1" si="10"/>
         <v>53</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>253</v>
       </c>
       <c r="C266" s="5"/>
-      <c r="D266" s="271">
+      <c r="D266" s="273">
         <f t="shared" ca="1" si="10"/>
         <v>98</v>
       </c>
@@ -7630,7 +7632,7 @@
         <v>254</v>
       </c>
       <c r="C267" s="5"/>
-      <c r="D267" s="272">
+      <c r="D267" s="274">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7648,7 +7650,7 @@
         <v>255</v>
       </c>
       <c r="C268" s="5"/>
-      <c r="D268" s="273">
+      <c r="D268" s="275">
         <f t="shared" ca="1" si="10"/>
         <v>46</v>
       </c>
@@ -7666,7 +7668,7 @@
         <v>256</v>
       </c>
       <c r="C269" s="5"/>
-      <c r="D269" s="274">
+      <c r="D269" s="276">
         <f t="shared" ca="1" si="10"/>
         <v>78</v>
       </c>
@@ -7684,7 +7686,7 @@
         <v>257</v>
       </c>
       <c r="C270" s="5"/>
-      <c r="D270" s="275">
+      <c r="D270" s="277">
         <f t="shared" ca="1" si="10"/>
         <v>91</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>258</v>
       </c>
       <c r="C271" s="5"/>
-      <c r="D271" s="276">
+      <c r="D271" s="278">
         <f t="shared" ref="D271:D334" ca="1" si="13">ROUND(RAND()*100,0)</f>
         <v>78</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>259</v>
       </c>
       <c r="C272" s="5"/>
-      <c r="D272" s="277">
+      <c r="D272" s="279">
         <f t="shared" ca="1" si="13"/>
         <v>11</v>
       </c>
@@ -7738,7 +7740,7 @@
         <v>260</v>
       </c>
       <c r="C273" s="5"/>
-      <c r="D273" s="278">
+      <c r="D273" s="280">
         <f t="shared" ca="1" si="13"/>
         <v>19</v>
       </c>
@@ -7756,7 +7758,7 @@
         <v>261</v>
       </c>
       <c r="C274" s="5"/>
-      <c r="D274" s="279">
+      <c r="D274" s="281">
         <f t="shared" ca="1" si="13"/>
         <v>29</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>262</v>
       </c>
       <c r="C275" s="5"/>
-      <c r="D275" s="280">
+      <c r="D275" s="282">
         <f t="shared" ca="1" si="13"/>
         <v>67</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>263</v>
       </c>
       <c r="C276" s="5"/>
-      <c r="D276" s="281">
+      <c r="D276" s="283">
         <f t="shared" ca="1" si="13"/>
         <v>100</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>264</v>
       </c>
       <c r="C277" s="5"/>
-      <c r="D277" s="282">
+      <c r="D277" s="284">
         <f t="shared" ca="1" si="13"/>
         <v>31</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>265</v>
       </c>
       <c r="C278" s="5"/>
-      <c r="D278" s="283">
+      <c r="D278" s="285">
         <f t="shared" ca="1" si="13"/>
         <v>60</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>266</v>
       </c>
       <c r="C279" s="5"/>
-      <c r="D279" s="284">
+      <c r="D279" s="286">
         <f t="shared" ca="1" si="13"/>
         <v>55</v>
       </c>
@@ -7864,7 +7866,7 @@
         <v>267</v>
       </c>
       <c r="C280" s="5"/>
-      <c r="D280" s="285">
+      <c r="D280" s="287">
         <f t="shared" ca="1" si="13"/>
         <v>23</v>
       </c>
@@ -7882,7 +7884,7 @@
         <v>268</v>
       </c>
       <c r="C281" s="5"/>
-      <c r="D281" s="286">
+      <c r="D281" s="288">
         <f t="shared" ca="1" si="13"/>
         <v>18</v>
       </c>
@@ -7900,7 +7902,7 @@
         <v>269</v>
       </c>
       <c r="C282" s="5"/>
-      <c r="D282" s="287">
+      <c r="D282" s="289">
         <f t="shared" ca="1" si="13"/>
         <v>88</v>
       </c>
@@ -7918,7 +7920,7 @@
         <v>270</v>
       </c>
       <c r="C283" s="5"/>
-      <c r="D283" s="288">
+      <c r="D283" s="290">
         <f t="shared" ca="1" si="13"/>
         <v>25</v>
       </c>
@@ -7936,7 +7938,7 @@
         <v>271</v>
       </c>
       <c r="C284" s="5"/>
-      <c r="D284" s="289">
+      <c r="D284" s="291">
         <f t="shared" ca="1" si="13"/>
         <v>90</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>272</v>
       </c>
       <c r="C285" s="5"/>
-      <c r="D285" s="290">
+      <c r="D285" s="292">
         <f t="shared" ca="1" si="13"/>
         <v>8</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>273</v>
       </c>
       <c r="C286" s="5"/>
-      <c r="D286" s="291">
+      <c r="D286" s="293">
         <f t="shared" ca="1" si="13"/>
         <v>49</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>274</v>
       </c>
       <c r="C287" s="5"/>
-      <c r="D287" s="292">
+      <c r="D287" s="294">
         <f t="shared" ca="1" si="13"/>
         <v>21</v>
       </c>
@@ -8008,7 +8010,7 @@
         <v>275</v>
       </c>
       <c r="C288" s="5"/>
-      <c r="D288" s="293">
+      <c r="D288" s="295">
         <f t="shared" ca="1" si="13"/>
         <v>38</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>276</v>
       </c>
       <c r="C289" s="5"/>
-      <c r="D289" s="294">
+      <c r="D289" s="296">
         <f t="shared" ca="1" si="13"/>
         <v>30</v>
       </c>
@@ -8044,7 +8046,7 @@
         <v>277</v>
       </c>
       <c r="C290" s="5"/>
-      <c r="D290" s="295">
+      <c r="D290" s="297">
         <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>278</v>
       </c>
       <c r="C291" s="5"/>
-      <c r="D291" s="296">
+      <c r="D291" s="298">
         <f t="shared" ca="1" si="13"/>
         <v>33</v>
       </c>
@@ -8080,7 +8082,7 @@
         <v>279</v>
       </c>
       <c r="C292" s="5"/>
-      <c r="D292" s="297">
+      <c r="D292" s="299">
         <f t="shared" ca="1" si="13"/>
         <v>40</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>280</v>
       </c>
       <c r="C293" s="5"/>
-      <c r="D293" s="298">
+      <c r="D293" s="300">
         <f t="shared" ca="1" si="13"/>
         <v>50</v>
       </c>
@@ -8116,7 +8118,7 @@
         <v>281</v>
       </c>
       <c r="C294" s="5"/>
-      <c r="D294" s="299">
+      <c r="D294" s="301">
         <f t="shared" ca="1" si="13"/>
         <v>31</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>282</v>
       </c>
       <c r="C295" s="5"/>
-      <c r="D295" s="300">
+      <c r="D295" s="302">
         <f t="shared" ca="1" si="13"/>
         <v>30</v>
       </c>
@@ -8152,7 +8154,7 @@
         <v>283</v>
       </c>
       <c r="C296" s="5"/>
-      <c r="D296" s="301">
+      <c r="D296" s="303">
         <f t="shared" ca="1" si="13"/>
         <v>38</v>
       </c>
@@ -8170,7 +8172,7 @@
         <v>284</v>
       </c>
       <c r="C297" s="5"/>
-      <c r="D297" s="302">
+      <c r="D297" s="304">
         <f t="shared" ca="1" si="13"/>
         <v>15</v>
       </c>
@@ -8188,7 +8190,7 @@
         <v>285</v>
       </c>
       <c r="C298" s="5"/>
-      <c r="D298" s="303">
+      <c r="D298" s="305">
         <f t="shared" ca="1" si="13"/>
         <v>68</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>286</v>
       </c>
       <c r="C299" s="5"/>
-      <c r="D299" s="304">
+      <c r="D299" s="306">
         <f t="shared" ca="1" si="13"/>
         <v>59</v>
       </c>
@@ -8224,7 +8226,7 @@
         <v>287</v>
       </c>
       <c r="C300" s="5"/>
-      <c r="D300" s="305">
+      <c r="D300" s="307">
         <f t="shared" ca="1" si="13"/>
         <v>58</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>288</v>
       </c>
       <c r="C301" s="5"/>
-      <c r="D301" s="306">
+      <c r="D301" s="308">
         <f t="shared" ca="1" si="13"/>
         <v>25</v>
       </c>
@@ -8260,7 +8262,7 @@
         <v>289</v>
       </c>
       <c r="C302" s="5"/>
-      <c r="D302" s="307">
+      <c r="D302" s="309">
         <f t="shared" ca="1" si="13"/>
         <v>83</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>290</v>
       </c>
       <c r="C303" s="5"/>
-      <c r="D303" s="308">
+      <c r="D303" s="310">
         <f t="shared" ca="1" si="13"/>
         <v>53</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>291</v>
       </c>
       <c r="C304" s="5"/>
-      <c r="D304" s="309">
+      <c r="D304" s="311">
         <f t="shared" ca="1" si="13"/>
         <v>52</v>
       </c>
@@ -8314,7 +8316,7 @@
         <v>292</v>
       </c>
       <c r="C305" s="5"/>
-      <c r="D305" s="310">
+      <c r="D305" s="312">
         <f t="shared" ca="1" si="13"/>
         <v>64</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>293</v>
       </c>
       <c r="C306" s="5"/>
-      <c r="D306" s="311">
+      <c r="D306" s="313">
         <f t="shared" ca="1" si="13"/>
         <v>9</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>294</v>
       </c>
       <c r="C307" s="5"/>
-      <c r="D307" s="312">
+      <c r="D307" s="314">
         <f t="shared" ca="1" si="13"/>
         <v>70</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>295</v>
       </c>
       <c r="C308" s="5"/>
-      <c r="D308" s="313">
+      <c r="D308" s="315">
         <f t="shared" ca="1" si="13"/>
         <v>62</v>
       </c>
@@ -8386,7 +8388,7 @@
         <v>296</v>
       </c>
       <c r="C309" s="5"/>
-      <c r="D309" s="314">
+      <c r="D309" s="316">
         <f t="shared" ca="1" si="13"/>
         <v>84</v>
       </c>
@@ -8404,7 +8406,7 @@
         <v>297</v>
       </c>
       <c r="C310" s="5"/>
-      <c r="D310" s="315">
+      <c r="D310" s="317">
         <f t="shared" ca="1" si="13"/>
         <v>63</v>
       </c>
@@ -8422,7 +8424,7 @@
         <v>298</v>
       </c>
       <c r="C311" s="5"/>
-      <c r="D311" s="316">
+      <c r="D311" s="318">
         <f t="shared" ca="1" si="13"/>
         <v>32</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>299</v>
       </c>
       <c r="C312" s="5"/>
-      <c r="D312" s="317">
+      <c r="D312" s="319">
         <f t="shared" ca="1" si="13"/>
         <v>56</v>
       </c>
@@ -8458,7 +8460,7 @@
         <v>300</v>
       </c>
       <c r="C313" s="5"/>
-      <c r="D313" s="318">
+      <c r="D313" s="320">
         <f t="shared" ca="1" si="13"/>
         <v>90</v>
       </c>
@@ -8476,7 +8478,7 @@
         <v>301</v>
       </c>
       <c r="C314" s="5"/>
-      <c r="D314" s="319">
+      <c r="D314" s="321">
         <f t="shared" ca="1" si="13"/>
         <v>83</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>302</v>
       </c>
       <c r="C315" s="5"/>
-      <c r="D315" s="320">
+      <c r="D315" s="322">
         <f t="shared" ca="1" si="13"/>
         <v>54</v>
       </c>
@@ -8512,7 +8514,7 @@
         <v>303</v>
       </c>
       <c r="C316" s="5"/>
-      <c r="D316" s="321">
+      <c r="D316" s="323">
         <f t="shared" ca="1" si="13"/>
         <v>51</v>
       </c>
@@ -8530,7 +8532,7 @@
         <v>304</v>
       </c>
       <c r="C317" s="5"/>
-      <c r="D317" s="322">
+      <c r="D317" s="324">
         <f t="shared" ca="1" si="13"/>
         <v>87</v>
       </c>
@@ -8548,7 +8550,7 @@
         <v>305</v>
       </c>
       <c r="C318" s="5"/>
-      <c r="D318" s="323">
+      <c r="D318" s="325">
         <f t="shared" ca="1" si="13"/>
         <v>34</v>
       </c>
@@ -8566,7 +8568,7 @@
         <v>306</v>
       </c>
       <c r="C319" s="5"/>
-      <c r="D319" s="324">
+      <c r="D319" s="326">
         <f t="shared" ca="1" si="13"/>
         <v>32</v>
       </c>
@@ -8584,7 +8586,7 @@
         <v>307</v>
       </c>
       <c r="C320" s="5"/>
-      <c r="D320" s="325">
+      <c r="D320" s="327">
         <f t="shared" ca="1" si="13"/>
         <v>57</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>308</v>
       </c>
       <c r="C321" s="5"/>
-      <c r="D321" s="326">
+      <c r="D321" s="328">
         <f t="shared" ca="1" si="13"/>
         <v>54</v>
       </c>
@@ -8620,7 +8622,7 @@
         <v>309</v>
       </c>
       <c r="C322" s="5"/>
-      <c r="D322" s="327">
+      <c r="D322" s="329">
         <f t="shared" ca="1" si="13"/>
         <v>69</v>
       </c>
@@ -8638,7 +8640,7 @@
         <v>310</v>
       </c>
       <c r="C323" s="5"/>
-      <c r="D323" s="328">
+      <c r="D323" s="330">
         <f t="shared" ca="1" si="13"/>
         <v>59</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>311</v>
       </c>
       <c r="C324" s="5"/>
-      <c r="D324" s="329">
+      <c r="D324" s="331">
         <f t="shared" ca="1" si="13"/>
         <v>48</v>
       </c>
@@ -8674,7 +8676,7 @@
         <v>312</v>
       </c>
       <c r="C325" s="5"/>
-      <c r="D325" s="330">
+      <c r="D325" s="332">
         <f t="shared" ca="1" si="13"/>
         <v>48</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>313</v>
       </c>
       <c r="C326" s="5"/>
-      <c r="D326" s="331">
+      <c r="D326" s="333">
         <f t="shared" ca="1" si="13"/>
         <v>44</v>
       </c>
@@ -8710,7 +8712,7 @@
         <v>314</v>
       </c>
       <c r="C327" s="5"/>
-      <c r="D327" s="332">
+      <c r="D327" s="334">
         <f t="shared" ca="1" si="13"/>
         <v>37</v>
       </c>
@@ -8728,7 +8730,7 @@
         <v>315</v>
       </c>
       <c r="C328" s="5"/>
-      <c r="D328" s="333">
+      <c r="D328" s="335">
         <f t="shared" ca="1" si="13"/>
         <v>58</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>316</v>
       </c>
       <c r="C329" s="5"/>
-      <c r="D329" s="334">
+      <c r="D329" s="336">
         <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
@@ -8764,7 +8766,7 @@
         <v>317</v>
       </c>
       <c r="C330" s="5"/>
-      <c r="D330" s="335">
+      <c r="D330" s="337">
         <f t="shared" ca="1" si="13"/>
         <v>32</v>
       </c>
@@ -8782,7 +8784,7 @@
         <v>318</v>
       </c>
       <c r="C331" s="5"/>
-      <c r="D331" s="336">
+      <c r="D331" s="338">
         <f t="shared" ca="1" si="13"/>
         <v>16</v>
       </c>
@@ -8800,7 +8802,7 @@
         <v>319</v>
       </c>
       <c r="C332" s="5"/>
-      <c r="D332" s="337">
+      <c r="D332" s="339">
         <f t="shared" ca="1" si="13"/>
         <v>23</v>
       </c>
@@ -8818,7 +8820,7 @@
         <v>320</v>
       </c>
       <c r="C333" s="5"/>
-      <c r="D333" s="338">
+      <c r="D333" s="340">
         <f t="shared" ca="1" si="13"/>
         <v>35</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>321</v>
       </c>
       <c r="C334" s="5"/>
-      <c r="D334" s="339">
+      <c r="D334" s="341">
         <f t="shared" ca="1" si="13"/>
         <v>20</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>322</v>
       </c>
       <c r="C335" s="5"/>
-      <c r="D335" s="340">
+      <c r="D335" s="342">
         <f t="shared" ref="D335:D398" ca="1" si="16">ROUND(RAND()*100,0)</f>
         <v>62</v>
       </c>
@@ -8872,7 +8874,7 @@
         <v>323</v>
       </c>
       <c r="C336" s="5"/>
-      <c r="D336" s="341">
+      <c r="D336" s="343">
         <f t="shared" ca="1" si="16"/>
         <v>82</v>
       </c>
@@ -8890,7 +8892,7 @@
         <v>324</v>
       </c>
       <c r="C337" s="5"/>
-      <c r="D337" s="342">
+      <c r="D337" s="344">
         <f t="shared" ca="1" si="16"/>
         <v>31</v>
       </c>
@@ -8908,7 +8910,7 @@
         <v>325</v>
       </c>
       <c r="C338" s="5"/>
-      <c r="D338" s="343">
+      <c r="D338" s="345">
         <f t="shared" ca="1" si="16"/>
         <v>91</v>
       </c>
@@ -8926,7 +8928,7 @@
         <v>326</v>
       </c>
       <c r="C339" s="5"/>
-      <c r="D339" s="344">
+      <c r="D339" s="346">
         <f t="shared" ca="1" si="16"/>
         <v>81</v>
       </c>
@@ -8944,7 +8946,7 @@
         <v>327</v>
       </c>
       <c r="C340" s="5"/>
-      <c r="D340" s="345">
+      <c r="D340" s="347">
         <f t="shared" ca="1" si="16"/>
         <v>3</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>328</v>
       </c>
       <c r="C341" s="5"/>
-      <c r="D341" s="346">
+      <c r="D341" s="348">
         <f t="shared" ca="1" si="16"/>
         <v>92</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>329</v>
       </c>
       <c r="C342" s="5"/>
-      <c r="D342" s="347">
+      <c r="D342" s="349">
         <f t="shared" ca="1" si="16"/>
         <v>60</v>
       </c>
@@ -8998,7 +9000,7 @@
         <v>330</v>
       </c>
       <c r="C343" s="5"/>
-      <c r="D343" s="348">
+      <c r="D343" s="350">
         <f t="shared" ca="1" si="16"/>
         <v>93</v>
       </c>
@@ -9016,7 +9018,7 @@
         <v>331</v>
       </c>
       <c r="C344" s="5"/>
-      <c r="D344" s="349">
+      <c r="D344" s="351">
         <f t="shared" ca="1" si="16"/>
         <v>24</v>
       </c>
@@ -9034,7 +9036,7 @@
         <v>332</v>
       </c>
       <c r="C345" s="5"/>
-      <c r="D345" s="350">
+      <c r="D345" s="352">
         <f t="shared" ca="1" si="16"/>
         <v>74</v>
       </c>
@@ -9052,7 +9054,7 @@
         <v>333</v>
       </c>
       <c r="C346" s="5"/>
-      <c r="D346" s="351">
+      <c r="D346" s="353">
         <f t="shared" ca="1" si="16"/>
         <v>30</v>
       </c>
@@ -9070,7 +9072,7 @@
         <v>334</v>
       </c>
       <c r="C347" s="5"/>
-      <c r="D347" s="352">
+      <c r="D347" s="354">
         <f t="shared" ca="1" si="16"/>
         <v>21</v>
       </c>
@@ -9088,7 +9090,7 @@
         <v>335</v>
       </c>
       <c r="C348" s="5"/>
-      <c r="D348" s="353">
+      <c r="D348" s="355">
         <f t="shared" ca="1" si="16"/>
         <v>37</v>
       </c>
@@ -9106,7 +9108,7 @@
         <v>336</v>
       </c>
       <c r="C349" s="5"/>
-      <c r="D349" s="354">
+      <c r="D349" s="356">
         <f t="shared" ca="1" si="16"/>
         <v>50</v>
       </c>
@@ -9124,7 +9126,7 @@
         <v>337</v>
       </c>
       <c r="C350" s="5"/>
-      <c r="D350" s="355">
+      <c r="D350" s="357">
         <f t="shared" ca="1" si="16"/>
         <v>21</v>
       </c>
@@ -9142,7 +9144,7 @@
         <v>338</v>
       </c>
       <c r="C351" s="5"/>
-      <c r="D351" s="356">
+      <c r="D351" s="358">
         <f t="shared" ca="1" si="16"/>
         <v>19</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>339</v>
       </c>
       <c r="C352" s="5"/>
-      <c r="D352" s="357">
+      <c r="D352" s="359">
         <f t="shared" ca="1" si="16"/>
         <v>91</v>
       </c>
@@ -9178,7 +9180,7 @@
         <v>340</v>
       </c>
       <c r="C353" s="5"/>
-      <c r="D353" s="358">
+      <c r="D353" s="360">
         <f t="shared" ca="1" si="16"/>
         <v>49</v>
       </c>
@@ -9196,7 +9198,7 @@
         <v>341</v>
       </c>
       <c r="C354" s="5"/>
-      <c r="D354" s="359">
+      <c r="D354" s="361">
         <f t="shared" ca="1" si="16"/>
         <v>86</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>342</v>
       </c>
       <c r="C355" s="5"/>
-      <c r="D355" s="360">
+      <c r="D355" s="362">
         <f t="shared" ca="1" si="16"/>
         <v>26</v>
       </c>
@@ -9232,7 +9234,7 @@
         <v>343</v>
       </c>
       <c r="C356" s="5"/>
-      <c r="D356" s="361">
+      <c r="D356" s="363">
         <f t="shared" ca="1" si="16"/>
         <v>87</v>
       </c>
@@ -9250,7 +9252,7 @@
         <v>344</v>
       </c>
       <c r="C357" s="5"/>
-      <c r="D357" s="362">
+      <c r="D357" s="364">
         <f t="shared" ca="1" si="16"/>
         <v>57</v>
       </c>
@@ -9268,7 +9270,7 @@
         <v>345</v>
       </c>
       <c r="C358" s="5"/>
-      <c r="D358" s="363">
+      <c r="D358" s="365">
         <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
@@ -9286,7 +9288,7 @@
         <v>346</v>
       </c>
       <c r="C359" s="5"/>
-      <c r="D359" s="364">
+      <c r="D359" s="366">
         <f t="shared" ca="1" si="16"/>
         <v>94</v>
       </c>
@@ -9304,7 +9306,7 @@
         <v>347</v>
       </c>
       <c r="C360" s="5"/>
-      <c r="D360" s="365">
+      <c r="D360" s="367">
         <f t="shared" ca="1" si="16"/>
         <v>7</v>
       </c>
@@ -9322,7 +9324,7 @@
         <v>348</v>
       </c>
       <c r="C361" s="5"/>
-      <c r="D361" s="366">
+      <c r="D361" s="368">
         <f t="shared" ca="1" si="16"/>
         <v>5</v>
       </c>
@@ -9340,7 +9342,7 @@
         <v>349</v>
       </c>
       <c r="C362" s="5"/>
-      <c r="D362" s="367">
+      <c r="D362" s="369">
         <f t="shared" ca="1" si="16"/>
         <v>13</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>350</v>
       </c>
       <c r="C363" s="5"/>
-      <c r="D363" s="368">
+      <c r="D363" s="370">
         <f t="shared" ca="1" si="16"/>
         <v>56</v>
       </c>
@@ -9376,7 +9378,7 @@
         <v>351</v>
       </c>
       <c r="C364" s="5"/>
-      <c r="D364" s="369">
+      <c r="D364" s="371">
         <f t="shared" ca="1" si="16"/>
         <v>67</v>
       </c>
@@ -9394,7 +9396,7 @@
         <v>352</v>
       </c>
       <c r="C365" s="5"/>
-      <c r="D365" s="370">
+      <c r="D365" s="372">
         <f t="shared" ca="1" si="16"/>
         <v>15</v>
       </c>
@@ -9412,7 +9414,7 @@
         <v>353</v>
       </c>
       <c r="C366" s="5"/>
-      <c r="D366" s="371">
+      <c r="D366" s="373">
         <f t="shared" ca="1" si="16"/>
         <v>37</v>
       </c>
@@ -9430,7 +9432,7 @@
         <v>354</v>
       </c>
       <c r="C367" s="5"/>
-      <c r="D367" s="372">
+      <c r="D367" s="374">
         <f t="shared" ca="1" si="16"/>
         <v>82</v>
       </c>
@@ -9448,7 +9450,7 @@
         <v>355</v>
       </c>
       <c r="C368" s="5"/>
-      <c r="D368" s="373">
+      <c r="D368" s="375">
         <f t="shared" ca="1" si="16"/>
         <v>27</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>356</v>
       </c>
       <c r="C369" s="5"/>
-      <c r="D369" s="374">
+      <c r="D369" s="376">
         <f t="shared" ca="1" si="16"/>
         <v>42</v>
       </c>
@@ -9484,7 +9486,7 @@
         <v>357</v>
       </c>
       <c r="C370" s="5"/>
-      <c r="D370" s="375">
+      <c r="D370" s="377">
         <f t="shared" ca="1" si="16"/>
         <v>44</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>358</v>
       </c>
       <c r="C371" s="5"/>
-      <c r="D371" s="376">
+      <c r="D371" s="378">
         <f t="shared" ca="1" si="16"/>
         <v>88</v>
       </c>
@@ -9520,7 +9522,7 @@
         <v>359</v>
       </c>
       <c r="C372" s="5"/>
-      <c r="D372" s="377">
+      <c r="D372" s="379">
         <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
@@ -9538,7 +9540,7 @@
         <v>360</v>
       </c>
       <c r="C373" s="5"/>
-      <c r="D373" s="378">
+      <c r="D373" s="380">
         <f t="shared" ca="1" si="16"/>
         <v>27</v>
       </c>
@@ -9555,7 +9557,7 @@
         <f t="shared" ref="B374:B437" si="19">+B373+1</f>
         <v>361</v>
       </c>
-      <c r="D374" s="379">
+      <c r="D374" s="381">
         <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
@@ -9569,7 +9571,7 @@
         <f t="shared" si="19"/>
         <v>362</v>
       </c>
-      <c r="D375" s="380">
+      <c r="D375" s="382">
         <f t="shared" ca="1" si="16"/>
         <v>21</v>
       </c>
@@ -9583,7 +9585,7 @@
         <f t="shared" si="19"/>
         <v>363</v>
       </c>
-      <c r="D376" s="381">
+      <c r="D376" s="383">
         <f t="shared" ca="1" si="16"/>
         <v>67</v>
       </c>
@@ -9597,7 +9599,7 @@
         <f t="shared" si="19"/>
         <v>364</v>
       </c>
-      <c r="D377" s="382">
+      <c r="D377" s="384">
         <f t="shared" ca="1" si="16"/>
         <v>46</v>
       </c>
@@ -9611,7 +9613,7 @@
         <f t="shared" si="19"/>
         <v>365</v>
       </c>
-      <c r="D378" s="383">
+      <c r="D378" s="385">
         <f t="shared" ca="1" si="16"/>
         <v>59</v>
       </c>
@@ -9625,7 +9627,7 @@
         <f t="shared" si="19"/>
         <v>366</v>
       </c>
-      <c r="D379" s="384">
+      <c r="D379" s="386">
         <f t="shared" ca="1" si="16"/>
         <v>52</v>
       </c>
@@ -9639,7 +9641,7 @@
         <f t="shared" si="19"/>
         <v>367</v>
       </c>
-      <c r="D380" s="385">
+      <c r="D380" s="387">
         <f t="shared" ca="1" si="16"/>
         <v>88</v>
       </c>
@@ -9653,7 +9655,7 @@
         <f t="shared" si="19"/>
         <v>368</v>
       </c>
-      <c r="D381" s="386">
+      <c r="D381" s="388">
         <f t="shared" ca="1" si="16"/>
         <v>90</v>
       </c>
@@ -9667,7 +9669,7 @@
         <f t="shared" si="19"/>
         <v>369</v>
       </c>
-      <c r="D382" s="387">
+      <c r="D382" s="389">
         <f t="shared" ca="1" si="16"/>
         <v>44</v>
       </c>
@@ -9681,7 +9683,7 @@
         <f t="shared" si="19"/>
         <v>370</v>
       </c>
-      <c r="D383" s="388">
+      <c r="D383" s="390">
         <f t="shared" ca="1" si="16"/>
         <v>26</v>
       </c>
@@ -9695,7 +9697,7 @@
         <f t="shared" si="19"/>
         <v>371</v>
       </c>
-      <c r="D384" s="389">
+      <c r="D384" s="391">
         <f t="shared" ca="1" si="16"/>
         <v>7</v>
       </c>
@@ -9709,7 +9711,7 @@
         <f t="shared" si="19"/>
         <v>372</v>
       </c>
-      <c r="D385" s="390">
+      <c r="D385" s="392">
         <f t="shared" ca="1" si="16"/>
         <v>20</v>
       </c>
@@ -9723,7 +9725,7 @@
         <f t="shared" si="19"/>
         <v>373</v>
       </c>
-      <c r="D386" s="391">
+      <c r="D386" s="393">
         <f t="shared" ca="1" si="16"/>
         <v>96</v>
       </c>
@@ -9737,7 +9739,7 @@
         <f t="shared" si="19"/>
         <v>374</v>
       </c>
-      <c r="D387" s="392">
+      <c r="D387" s="394">
         <f t="shared" ca="1" si="16"/>
         <v>43</v>
       </c>
@@ -9751,7 +9753,7 @@
         <f t="shared" si="19"/>
         <v>375</v>
       </c>
-      <c r="D388" s="393">
+      <c r="D388" s="395">
         <f t="shared" ca="1" si="16"/>
         <v>30</v>
       </c>
@@ -9765,7 +9767,7 @@
         <f t="shared" si="19"/>
         <v>376</v>
       </c>
-      <c r="D389" s="394">
+      <c r="D389" s="396">
         <f t="shared" ca="1" si="16"/>
         <v>54</v>
       </c>
@@ -9779,7 +9781,7 @@
         <f t="shared" si="19"/>
         <v>377</v>
       </c>
-      <c r="D390" s="395">
+      <c r="D390" s="397">
         <f t="shared" ca="1" si="16"/>
         <v>91</v>
       </c>
@@ -9793,7 +9795,7 @@
         <f t="shared" si="19"/>
         <v>378</v>
       </c>
-      <c r="D391" s="396">
+      <c r="D391" s="398">
         <f t="shared" ca="1" si="16"/>
         <v>66</v>
       </c>
@@ -9807,7 +9809,7 @@
         <f t="shared" si="19"/>
         <v>379</v>
       </c>
-      <c r="D392" s="397">
+      <c r="D392" s="399">
         <f t="shared" ca="1" si="16"/>
         <v>59</v>
       </c>
@@ -9821,7 +9823,7 @@
         <f t="shared" si="19"/>
         <v>380</v>
       </c>
-      <c r="D393" s="398">
+      <c r="D393" s="400">
         <f t="shared" ca="1" si="16"/>
         <v>18</v>
       </c>
@@ -9835,7 +9837,7 @@
         <f t="shared" si="19"/>
         <v>381</v>
       </c>
-      <c r="D394" s="399">
+      <c r="D394" s="401">
         <f t="shared" ca="1" si="16"/>
         <v>8</v>
       </c>
@@ -9849,7 +9851,7 @@
         <f t="shared" si="19"/>
         <v>382</v>
       </c>
-      <c r="D395" s="400">
+      <c r="D395" s="402">
         <f t="shared" ca="1" si="16"/>
         <v>20</v>
       </c>
@@ -9863,7 +9865,7 @@
         <f t="shared" si="19"/>
         <v>383</v>
       </c>
-      <c r="D396" s="401">
+      <c r="D396" s="403">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
@@ -9877,7 +9879,7 @@
         <f t="shared" si="19"/>
         <v>384</v>
       </c>
-      <c r="D397" s="402">
+      <c r="D397" s="404">
         <f t="shared" ca="1" si="16"/>
         <v>11</v>
       </c>
@@ -9891,7 +9893,7 @@
         <f t="shared" si="19"/>
         <v>385</v>
       </c>
-      <c r="D398" s="403">
+      <c r="D398" s="405">
         <f t="shared" ca="1" si="16"/>
         <v>57</v>
       </c>
@@ -9905,7 +9907,7 @@
         <f t="shared" si="19"/>
         <v>386</v>
       </c>
-      <c r="D399" s="404">
+      <c r="D399" s="406">
         <f t="shared" ref="D399:D462" ca="1" si="20">ROUND(RAND()*100,0)</f>
         <v>38</v>
       </c>
@@ -9919,7 +9921,7 @@
         <f t="shared" si="19"/>
         <v>387</v>
       </c>
-      <c r="D400" s="405">
+      <c r="D400" s="407">
         <f t="shared" ca="1" si="20"/>
         <v>14</v>
       </c>
@@ -9933,7 +9935,7 @@
         <f t="shared" si="19"/>
         <v>388</v>
       </c>
-      <c r="D401" s="406">
+      <c r="D401" s="408">
         <f t="shared" ca="1" si="20"/>
         <v>12</v>
       </c>
@@ -9947,7 +9949,7 @@
         <f t="shared" si="19"/>
         <v>389</v>
       </c>
-      <c r="D402" s="407">
+      <c r="D402" s="409">
         <f t="shared" ca="1" si="20"/>
         <v>63</v>
       </c>
@@ -9961,7 +9963,7 @@
         <f t="shared" si="19"/>
         <v>390</v>
       </c>
-      <c r="D403" s="408">
+      <c r="D403" s="410">
         <f t="shared" ca="1" si="20"/>
         <v>66</v>
       </c>
@@ -9975,7 +9977,7 @@
         <f t="shared" si="19"/>
         <v>391</v>
       </c>
-      <c r="D404" s="409">
+      <c r="D404" s="411">
         <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
@@ -9989,7 +9991,7 @@
         <f t="shared" si="19"/>
         <v>392</v>
       </c>
-      <c r="D405" s="410">
+      <c r="D405" s="412">
         <f t="shared" ca="1" si="20"/>
         <v>25</v>
       </c>
@@ -10003,7 +10005,7 @@
         <f t="shared" si="19"/>
         <v>393</v>
       </c>
-      <c r="D406" s="411">
+      <c r="D406" s="413">
         <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
@@ -10017,7 +10019,7 @@
         <f t="shared" si="19"/>
         <v>394</v>
       </c>
-      <c r="D407" s="412">
+      <c r="D407" s="414">
         <f t="shared" ca="1" si="20"/>
         <v>86</v>
       </c>
@@ -10031,7 +10033,7 @@
         <f t="shared" si="19"/>
         <v>395</v>
       </c>
-      <c r="D408" s="413">
+      <c r="D408" s="415">
         <f t="shared" ca="1" si="20"/>
         <v>91</v>
       </c>
@@ -10045,7 +10047,7 @@
         <f t="shared" si="19"/>
         <v>396</v>
       </c>
-      <c r="D409" s="414">
+      <c r="D409" s="416">
         <f t="shared" ca="1" si="20"/>
         <v>52</v>
       </c>
@@ -10059,7 +10061,7 @@
         <f t="shared" si="19"/>
         <v>397</v>
       </c>
-      <c r="D410" s="415">
+      <c r="D410" s="417">
         <f t="shared" ca="1" si="20"/>
         <v>68</v>
       </c>
@@ -10073,7 +10075,7 @@
         <f t="shared" si="19"/>
         <v>398</v>
       </c>
-      <c r="D411" s="416">
+      <c r="D411" s="418">
         <f t="shared" ca="1" si="20"/>
         <v>97</v>
       </c>
@@ -10087,7 +10089,7 @@
         <f t="shared" si="19"/>
         <v>399</v>
       </c>
-      <c r="D412" s="417">
+      <c r="D412" s="419">
         <f t="shared" ca="1" si="20"/>
         <v>54</v>
       </c>
@@ -10101,7 +10103,7 @@
         <f t="shared" si="19"/>
         <v>400</v>
       </c>
-      <c r="D413" s="418">
+      <c r="D413" s="420">
         <f t="shared" ca="1" si="20"/>
         <v>5</v>
       </c>
@@ -10115,7 +10117,7 @@
         <f t="shared" si="19"/>
         <v>401</v>
       </c>
-      <c r="D414" s="419">
+      <c r="D414" s="421">
         <f t="shared" ca="1" si="20"/>
         <v>99</v>
       </c>
@@ -10129,7 +10131,7 @@
         <f t="shared" si="19"/>
         <v>402</v>
       </c>
-      <c r="D415" s="420">
+      <c r="D415" s="422">
         <f t="shared" ca="1" si="20"/>
         <v>99</v>
       </c>
@@ -10143,7 +10145,7 @@
         <f t="shared" si="19"/>
         <v>403</v>
       </c>
-      <c r="D416" s="421">
+      <c r="D416" s="423">
         <f t="shared" ca="1" si="20"/>
         <v>92</v>
       </c>
@@ -10157,7 +10159,7 @@
         <f t="shared" si="19"/>
         <v>404</v>
       </c>
-      <c r="D417" s="422">
+      <c r="D417" s="424">
         <f t="shared" ca="1" si="20"/>
         <v>13</v>
       </c>
@@ -10171,7 +10173,7 @@
         <f t="shared" si="19"/>
         <v>405</v>
       </c>
-      <c r="D418" s="423">
+      <c r="D418" s="425">
         <f t="shared" ca="1" si="20"/>
         <v>51</v>
       </c>
@@ -10185,7 +10187,7 @@
         <f t="shared" si="19"/>
         <v>406</v>
       </c>
-      <c r="D419" s="424">
+      <c r="D419" s="426">
         <f t="shared" ca="1" si="20"/>
         <v>86</v>
       </c>
@@ -10199,7 +10201,7 @@
         <f t="shared" si="19"/>
         <v>407</v>
       </c>
-      <c r="D420" s="425">
+      <c r="D420" s="427">
         <f t="shared" ca="1" si="20"/>
         <v>10</v>
       </c>
@@ -10213,7 +10215,7 @@
         <f t="shared" si="19"/>
         <v>408</v>
       </c>
-      <c r="D421" s="426">
+      <c r="D421" s="428">
         <f t="shared" ca="1" si="20"/>
         <v>36</v>
       </c>
@@ -10227,7 +10229,7 @@
         <f t="shared" si="19"/>
         <v>409</v>
       </c>
-      <c r="D422" s="427">
+      <c r="D422" s="429">
         <f t="shared" ca="1" si="20"/>
         <v>31</v>
       </c>
@@ -10241,7 +10243,7 @@
         <f t="shared" si="19"/>
         <v>410</v>
       </c>
-      <c r="D423" s="428">
+      <c r="D423" s="430">
         <f t="shared" ca="1" si="20"/>
         <v>44</v>
       </c>
@@ -10255,7 +10257,7 @@
         <f t="shared" si="19"/>
         <v>411</v>
       </c>
-      <c r="D424" s="429">
+      <c r="D424" s="431">
         <f t="shared" ca="1" si="20"/>
         <v>100</v>
       </c>
@@ -10269,7 +10271,7 @@
         <f t="shared" si="19"/>
         <v>412</v>
       </c>
-      <c r="D425" s="430">
+      <c r="D425" s="432">
         <f t="shared" ca="1" si="20"/>
         <v>44</v>
       </c>
@@ -10283,7 +10285,7 @@
         <f t="shared" si="19"/>
         <v>413</v>
       </c>
-      <c r="D426" s="431">
+      <c r="D426" s="433">
         <f t="shared" ca="1" si="20"/>
         <v>36</v>
       </c>
@@ -10297,7 +10299,7 @@
         <f t="shared" si="19"/>
         <v>414</v>
       </c>
-      <c r="D427" s="432">
+      <c r="D427" s="434">
         <f t="shared" ca="1" si="20"/>
         <v>78</v>
       </c>
@@ -10311,7 +10313,7 @@
         <f t="shared" si="19"/>
         <v>415</v>
       </c>
-      <c r="D428" s="433">
+      <c r="D428" s="435">
         <f t="shared" ca="1" si="20"/>
         <v>38</v>
       </c>
@@ -10325,7 +10327,7 @@
         <f t="shared" si="19"/>
         <v>416</v>
       </c>
-      <c r="D429" s="434">
+      <c r="D429" s="436">
         <f t="shared" ca="1" si="20"/>
         <v>99</v>
       </c>
@@ -10339,7 +10341,7 @@
         <f t="shared" si="19"/>
         <v>417</v>
       </c>
-      <c r="D430" s="435">
+      <c r="D430" s="437">
         <f t="shared" ca="1" si="20"/>
         <v>27</v>
       </c>
@@ -10353,7 +10355,7 @@
         <f t="shared" si="19"/>
         <v>418</v>
       </c>
-      <c r="D431" s="436">
+      <c r="D431" s="438">
         <f t="shared" ca="1" si="20"/>
         <v>92</v>
       </c>
@@ -10367,7 +10369,7 @@
         <f t="shared" si="19"/>
         <v>419</v>
       </c>
-      <c r="D432" s="437">
+      <c r="D432" s="439">
         <f t="shared" ca="1" si="20"/>
         <v>38</v>
       </c>
@@ -10381,7 +10383,7 @@
         <f t="shared" si="19"/>
         <v>420</v>
       </c>
-      <c r="D433" s="438">
+      <c r="D433" s="440">
         <f t="shared" ca="1" si="20"/>
         <v>18</v>
       </c>
@@ -10395,7 +10397,7 @@
         <f t="shared" si="19"/>
         <v>421</v>
       </c>
-      <c r="D434" s="439">
+      <c r="D434" s="441">
         <f t="shared" ca="1" si="20"/>
         <v>80</v>
       </c>
@@ -10409,7 +10411,7 @@
         <f t="shared" si="19"/>
         <v>422</v>
       </c>
-      <c r="D435" s="440">
+      <c r="D435" s="442">
         <f t="shared" ca="1" si="20"/>
         <v>2</v>
       </c>
@@ -10423,7 +10425,7 @@
         <f t="shared" si="19"/>
         <v>423</v>
       </c>
-      <c r="D436" s="441">
+      <c r="D436" s="443">
         <f t="shared" ca="1" si="20"/>
         <v>61</v>
       </c>
@@ -10437,7 +10439,7 @@
         <f t="shared" si="19"/>
         <v>424</v>
       </c>
-      <c r="D437" s="442">
+      <c r="D437" s="444">
         <f t="shared" ca="1" si="20"/>
         <v>8</v>
       </c>
@@ -10451,7 +10453,7 @@
         <f t="shared" ref="B438:B462" si="22">+B437+1</f>
         <v>425</v>
       </c>
-      <c r="D438" s="443">
+      <c r="D438" s="445">
         <f t="shared" ca="1" si="20"/>
         <v>37</v>
       </c>
@@ -10465,7 +10467,7 @@
         <f t="shared" si="22"/>
         <v>426</v>
       </c>
-      <c r="D439" s="444">
+      <c r="D439" s="446">
         <f t="shared" ca="1" si="20"/>
         <v>47</v>
       </c>
@@ -10479,7 +10481,7 @@
         <f t="shared" si="22"/>
         <v>427</v>
       </c>
-      <c r="D440" s="445">
+      <c r="D440" s="447">
         <f t="shared" ca="1" si="20"/>
         <v>32</v>
       </c>
@@ -10493,7 +10495,7 @@
         <f t="shared" si="22"/>
         <v>428</v>
       </c>
-      <c r="D441" s="446">
+      <c r="D441" s="448">
         <f t="shared" ca="1" si="20"/>
         <v>69</v>
       </c>
@@ -10507,7 +10509,7 @@
         <f t="shared" si="22"/>
         <v>429</v>
       </c>
-      <c r="D442" s="447">
+      <c r="D442" s="449">
         <f t="shared" ca="1" si="20"/>
         <v>80</v>
       </c>
@@ -10521,7 +10523,7 @@
         <f t="shared" si="22"/>
         <v>430</v>
       </c>
-      <c r="D443" s="448">
+      <c r="D443" s="450">
         <f t="shared" ca="1" si="20"/>
         <v>76</v>
       </c>
@@ -10535,7 +10537,7 @@
         <f t="shared" si="22"/>
         <v>431</v>
       </c>
-      <c r="D444" s="449">
+      <c r="D444" s="451">
         <f t="shared" ca="1" si="20"/>
         <v>63</v>
       </c>
@@ -10549,7 +10551,7 @@
         <f t="shared" si="22"/>
         <v>432</v>
       </c>
-      <c r="D445" s="450">
+      <c r="D445" s="452">
         <f t="shared" ca="1" si="20"/>
         <v>83</v>
       </c>
@@ -10563,7 +10565,7 @@
         <f t="shared" si="22"/>
         <v>433</v>
       </c>
-      <c r="D446" s="451">
+      <c r="D446" s="453">
         <f t="shared" ca="1" si="20"/>
         <v>38</v>
       </c>
@@ -10577,7 +10579,7 @@
         <f t="shared" si="22"/>
         <v>434</v>
       </c>
-      <c r="D447" s="452">
+      <c r="D447" s="454">
         <f t="shared" ca="1" si="20"/>
         <v>69</v>
       </c>
@@ -10591,7 +10593,7 @@
         <f t="shared" si="22"/>
         <v>435</v>
       </c>
-      <c r="D448" s="453">
+      <c r="D448" s="455">
         <f t="shared" ca="1" si="20"/>
         <v>93</v>
       </c>
@@ -10605,7 +10607,7 @@
         <f t="shared" si="22"/>
         <v>436</v>
       </c>
-      <c r="D449" s="454">
+      <c r="D449" s="456">
         <f t="shared" ca="1" si="20"/>
         <v>100</v>
       </c>
@@ -10619,7 +10621,7 @@
         <f t="shared" si="22"/>
         <v>437</v>
       </c>
-      <c r="D450" s="455">
+      <c r="D450" s="457">
         <f t="shared" ca="1" si="20"/>
         <v>83</v>
       </c>
@@ -10633,7 +10635,7 @@
         <f t="shared" si="22"/>
         <v>438</v>
       </c>
-      <c r="D451" s="456">
+      <c r="D451" s="458">
         <f t="shared" ca="1" si="20"/>
         <v>53</v>
       </c>
@@ -10647,7 +10649,7 @@
         <f t="shared" si="22"/>
         <v>439</v>
       </c>
-      <c r="D452" s="457">
+      <c r="D452" s="459">
         <f t="shared" ca="1" si="20"/>
         <v>90</v>
       </c>
@@ -10661,7 +10663,7 @@
         <f t="shared" si="22"/>
         <v>440</v>
       </c>
-      <c r="D453" s="458">
+      <c r="D453" s="460">
         <f t="shared" ca="1" si="20"/>
         <v>16</v>
       </c>
@@ -10675,7 +10677,7 @@
         <f t="shared" si="22"/>
         <v>441</v>
       </c>
-      <c r="D454" s="459">
+      <c r="D454" s="461">
         <f t="shared" ca="1" si="20"/>
         <v>79</v>
       </c>
@@ -10689,7 +10691,7 @@
         <f t="shared" si="22"/>
         <v>442</v>
       </c>
-      <c r="D455" s="460">
+      <c r="D455" s="462">
         <f t="shared" ca="1" si="20"/>
         <v>22</v>
       </c>
@@ -10703,7 +10705,7 @@
         <f t="shared" si="22"/>
         <v>443</v>
       </c>
-      <c r="D456" s="461">
+      <c r="D456" s="463">
         <f t="shared" ca="1" si="20"/>
         <v>87</v>
       </c>
@@ -10717,7 +10719,7 @@
         <f t="shared" si="22"/>
         <v>444</v>
       </c>
-      <c r="D457" s="462">
+      <c r="D457" s="464">
         <f t="shared" ca="1" si="20"/>
         <v>8</v>
       </c>
@@ -10731,7 +10733,7 @@
         <f t="shared" si="22"/>
         <v>445</v>
       </c>
-      <c r="D458" s="463">
+      <c r="D458" s="465">
         <f t="shared" ca="1" si="20"/>
         <v>83</v>
       </c>
@@ -10745,7 +10747,7 @@
         <f t="shared" si="22"/>
         <v>446</v>
       </c>
-      <c r="D459" s="464">
+      <c r="D459" s="466">
         <f t="shared" ca="1" si="20"/>
         <v>98</v>
       </c>
@@ -10759,7 +10761,7 @@
         <f t="shared" si="22"/>
         <v>447</v>
       </c>
-      <c r="D460" s="465">
+      <c r="D460" s="467">
         <f t="shared" ca="1" si="20"/>
         <v>13</v>
       </c>
@@ -10773,7 +10775,7 @@
         <f t="shared" si="22"/>
         <v>448</v>
       </c>
-      <c r="D461" s="466">
+      <c r="D461" s="468">
         <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
@@ -10787,7 +10789,7 @@
         <f t="shared" si="22"/>
         <v>449</v>
       </c>
-      <c r="D462" s="467">
+      <c r="D462" s="469">
         <f t="shared" ca="1" si="20"/>
         <v>8</v>
       </c>
@@ -10801,7 +10803,7 @@
         <f>+B462+1</f>
         <v>450</v>
       </c>
-      <c r="D463" s="468">
+      <c r="D463" s="470">
         <f t="shared" ref="D463:D493" ca="1" si="23">ROUND(RAND()*100,0)</f>
         <v>31</v>
       </c>
@@ -10815,7 +10817,7 @@
         <f>+B463+1</f>
         <v>451</v>
       </c>
-      <c r="D464" s="469">
+      <c r="D464" s="471">
         <f t="shared" ca="1" si="23"/>
         <v>23</v>
       </c>
@@ -10829,7 +10831,7 @@
         <f>+B464+1</f>
         <v>452</v>
       </c>
-      <c r="D465" s="470">
+      <c r="D465" s="472">
         <f t="shared" ca="1" si="23"/>
         <v>31</v>
       </c>
@@ -10843,7 +10845,7 @@
         <f t="shared" ref="B466:B487" si="24">+B465+1</f>
         <v>453</v>
       </c>
-      <c r="D466" s="471">
+      <c r="D466" s="473">
         <f t="shared" ca="1" si="23"/>
         <v>16</v>
       </c>
@@ -10857,7 +10859,7 @@
         <f t="shared" si="24"/>
         <v>454</v>
       </c>
-      <c r="D467" s="472">
+      <c r="D467" s="474">
         <f t="shared" ca="1" si="23"/>
         <v>54</v>
       </c>
@@ -10871,7 +10873,7 @@
         <f t="shared" si="24"/>
         <v>455</v>
       </c>
-      <c r="D468" s="473">
+      <c r="D468" s="475">
         <f t="shared" ca="1" si="23"/>
         <v>38</v>
       </c>
@@ -10885,7 +10887,7 @@
         <f t="shared" si="24"/>
         <v>456</v>
       </c>
-      <c r="D469" s="474">
+      <c r="D469" s="476">
         <f t="shared" ca="1" si="23"/>
         <v>29</v>
       </c>
@@ -10899,7 +10901,7 @@
         <f t="shared" si="24"/>
         <v>457</v>
       </c>
-      <c r="D470" s="475">
+      <c r="D470" s="477">
         <f t="shared" ca="1" si="23"/>
         <v>92</v>
       </c>
@@ -10913,7 +10915,7 @@
         <f t="shared" si="24"/>
         <v>458</v>
       </c>
-      <c r="D471" s="476">
+      <c r="D471" s="478">
         <f t="shared" ca="1" si="23"/>
         <v>49</v>
       </c>
@@ -10927,7 +10929,7 @@
         <f t="shared" si="24"/>
         <v>459</v>
       </c>
-      <c r="D472" s="477">
+      <c r="D472" s="479">
         <f t="shared" ca="1" si="23"/>
         <v>97</v>
       </c>
@@ -10941,7 +10943,7 @@
         <f t="shared" si="24"/>
         <v>460</v>
       </c>
-      <c r="D473" s="478">
+      <c r="D473" s="480">
         <f t="shared" ca="1" si="23"/>
         <v>35</v>
       </c>
@@ -10955,7 +10957,7 @@
         <f t="shared" si="24"/>
         <v>461</v>
       </c>
-      <c r="D474" s="479">
+      <c r="D474" s="481">
         <f t="shared" ca="1" si="23"/>
         <v>3</v>
       </c>
@@ -10969,7 +10971,7 @@
         <f t="shared" si="24"/>
         <v>462</v>
       </c>
-      <c r="D475" s="480">
+      <c r="D475" s="482">
         <f t="shared" ca="1" si="23"/>
         <v>97</v>
       </c>
@@ -10983,7 +10985,7 @@
         <f t="shared" si="24"/>
         <v>463</v>
       </c>
-      <c r="D476" s="481">
+      <c r="D476" s="483">
         <f t="shared" ca="1" si="23"/>
         <v>37</v>
       </c>
@@ -10997,7 +10999,7 @@
         <f t="shared" si="24"/>
         <v>464</v>
       </c>
-      <c r="D477" s="482">
+      <c r="D477" s="484">
         <f t="shared" ca="1" si="23"/>
         <v>60</v>
       </c>
@@ -11011,7 +11013,7 @@
         <f t="shared" si="24"/>
         <v>465</v>
       </c>
-      <c r="D478" s="483">
+      <c r="D478" s="485">
         <f t="shared" ca="1" si="23"/>
         <v>14</v>
       </c>
@@ -11025,7 +11027,7 @@
         <f t="shared" si="24"/>
         <v>466</v>
       </c>
-      <c r="D479" s="484">
+      <c r="D479" s="486">
         <f t="shared" ca="1" si="23"/>
         <v>88</v>
       </c>
@@ -11039,7 +11041,7 @@
         <f t="shared" si="24"/>
         <v>467</v>
       </c>
-      <c r="D480" s="485">
+      <c r="D480" s="487">
         <f t="shared" ca="1" si="23"/>
         <v>16</v>
       </c>
@@ -11053,7 +11055,7 @@
         <f t="shared" si="24"/>
         <v>468</v>
       </c>
-      <c r="D481" s="486">
+      <c r="D481" s="488">
         <f t="shared" ca="1" si="23"/>
         <v>78</v>
       </c>
@@ -11067,7 +11069,7 @@
         <f t="shared" si="24"/>
         <v>469</v>
       </c>
-      <c r="D482" s="487">
+      <c r="D482" s="489">
         <f t="shared" ca="1" si="23"/>
         <v>91</v>
       </c>
@@ -11081,7 +11083,7 @@
         <f t="shared" si="24"/>
         <v>470</v>
       </c>
-      <c r="D483" s="488">
+      <c r="D483" s="490">
         <f t="shared" ca="1" si="23"/>
         <v>37</v>
       </c>
@@ -11095,7 +11097,7 @@
         <f t="shared" si="24"/>
         <v>471</v>
       </c>
-      <c r="D484" s="489">
+      <c r="D484" s="491">
         <f t="shared" ca="1" si="23"/>
         <v>63</v>
       </c>
@@ -11109,7 +11111,7 @@
         <f t="shared" si="24"/>
         <v>472</v>
       </c>
-      <c r="D485" s="490">
+      <c r="D485" s="492">
         <f t="shared" ca="1" si="23"/>
         <v>13</v>
       </c>
@@ -11123,7 +11125,7 @@
         <f t="shared" si="24"/>
         <v>473</v>
       </c>
-      <c r="D486" s="491">
+      <c r="D486" s="493">
         <f t="shared" ca="1" si="23"/>
         <v>98</v>
       </c>
@@ -11137,7 +11139,7 @@
         <f t="shared" si="24"/>
         <v>474</v>
       </c>
-      <c r="D487" s="492">
+      <c r="D487" s="494">
         <f t="shared" ca="1" si="23"/>
         <v>59</v>
       </c>
@@ -11151,7 +11153,7 @@
         <f t="shared" ref="B488:B493" si="25">+B487+1</f>
         <v>475</v>
       </c>
-      <c r="D488" s="493">
+      <c r="D488" s="495">
         <f t="shared" ca="1" si="23"/>
         <v>80</v>
       </c>
@@ -11165,7 +11167,7 @@
         <f t="shared" si="25"/>
         <v>476</v>
       </c>
-      <c r="D489" s="494">
+      <c r="D489" s="496">
         <f t="shared" ca="1" si="23"/>
         <v>28</v>
       </c>
@@ -11179,7 +11181,7 @@
         <f t="shared" si="25"/>
         <v>477</v>
       </c>
-      <c r="D490" s="495">
+      <c r="D490" s="497">
         <f t="shared" ca="1" si="23"/>
         <v>61</v>
       </c>
@@ -11193,7 +11195,7 @@
         <f t="shared" si="25"/>
         <v>478</v>
       </c>
-      <c r="D491" s="496">
+      <c r="D491" s="498">
         <f t="shared" ca="1" si="23"/>
         <v>89</v>
       </c>
@@ -11207,7 +11209,7 @@
         <f t="shared" si="25"/>
         <v>479</v>
       </c>
-      <c r="D492" s="497">
+      <c r="D492" s="499">
         <f t="shared" ca="1" si="23"/>
         <v>23</v>
       </c>
@@ -11221,7 +11223,7 @@
         <f t="shared" si="25"/>
         <v>480</v>
       </c>
-      <c r="D493" s="498">
+      <c r="D493" s="500">
         <f t="shared" ca="1" si="23"/>
         <v>11</v>
       </c>
